--- a/code/testData.xlsx
+++ b/code/testData.xlsx
@@ -3470,7 +3470,7 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(-1,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:R13" ca="1" si="0">RANDBETWEEN(-1,1)</f>
@@ -3478,31 +3478,31 @@
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
@@ -3522,35 +3522,35 @@
       </c>
       <c r="O2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S2">
         <f t="shared" ref="R2:AE13" ca="1" si="1">RANDBETWEEN(-1,1)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U2">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W2">
         <f t="shared" ca="1" si="1"/>
@@ -3558,19 +3558,19 @@
       </c>
       <c r="X2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2">
         <f t="shared" ca="1" si="1"/>
@@ -3578,15 +3578,15 @@
       </c>
       <c r="AC2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
@@ -3595,11 +3595,11 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B13" ca="1" si="2">RANDBETWEEN(-1,1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
@@ -3607,11 +3607,11 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
@@ -3623,31 +3623,31 @@
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <f t="shared" ca="1" si="0"/>
@@ -3659,15 +3659,15 @@
       </c>
       <c r="R3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U3">
         <f t="shared" ca="1" si="1"/>
@@ -3675,23 +3675,23 @@
       </c>
       <c r="V3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <f t="shared" ca="1" si="1"/>
@@ -3699,19 +3699,19 @@
       </c>
       <c r="AB3">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="2"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
@@ -3748,15 +3748,15 @@
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
@@ -3764,15 +3764,15 @@
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="0"/>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="1"/>
@@ -3788,15 +3788,15 @@
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V4">
         <f t="shared" ca="1" si="1"/>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="W4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <f t="shared" ca="1" si="1"/>
@@ -3816,15 +3816,15 @@
       </c>
       <c r="Z4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB4">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <f t="shared" ca="1" si="1"/>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="AE4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
@@ -3845,15 +3845,15 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="2"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
@@ -3877,11 +3877,11 @@
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="0"/>
@@ -3909,43 +3909,43 @@
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="1"/>
@@ -3957,11 +3957,11 @@
       </c>
       <c r="AD5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
@@ -3970,11 +3970,11 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
@@ -3982,11 +3982,11 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
@@ -4022,11 +4022,11 @@
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="0"/>
@@ -4034,11 +4034,11 @@
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="1"/>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="U6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="1"/>
@@ -4054,11 +4054,11 @@
       </c>
       <c r="W6">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <f t="shared" ca="1" si="1"/>
@@ -4066,11 +4066,11 @@
       </c>
       <c r="Z6">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="1"/>
@@ -4082,11 +4082,11 @@
       </c>
       <c r="AD6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
@@ -4095,11 +4095,11 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
@@ -4107,15 +4107,15 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
@@ -4139,11 +4139,11 @@
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
@@ -4151,11 +4151,11 @@
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="1"/>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T7">
         <f t="shared" ca="1" si="1"/>
@@ -4175,19 +4175,19 @@
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <f t="shared" ca="1" si="1"/>
@@ -4195,11 +4195,11 @@
       </c>
       <c r="AA7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
         <f t="shared" ca="1" si="1"/>
@@ -4220,15 +4220,15 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
@@ -4236,67 +4236,67 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
         <f t="shared" ca="1" si="1"/>
@@ -4304,35 +4304,35 @@
       </c>
       <c r="W8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE8">
         <f t="shared" ca="1" si="1"/>
@@ -4345,11 +4345,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="2"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
@@ -4357,19 +4357,19 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
@@ -4377,27 +4377,27 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="0"/>
@@ -4405,7 +4405,7 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="1"/>
@@ -4413,43 +4413,43 @@
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W9">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC9">
         <f t="shared" ca="1" si="1"/>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="AE9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
@@ -4470,19 +4470,19 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="2"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
@@ -4498,27 +4498,27 @@
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="0"/>
@@ -4526,19 +4526,19 @@
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S10">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <f t="shared" ca="1" si="1"/>
@@ -4546,11 +4546,11 @@
       </c>
       <c r="U10">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <f t="shared" ca="1" si="1"/>
@@ -4558,11 +4558,11 @@
       </c>
       <c r="X10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <f t="shared" ca="1" si="1"/>
@@ -4570,23 +4570,23 @@
       </c>
       <c r="AA10">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
@@ -4595,11 +4595,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
@@ -4615,19 +4615,19 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
@@ -4639,11 +4639,11 @@
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="0"/>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="0"/>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="S11">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T11">
         <f t="shared" ca="1" si="1"/>
@@ -4671,15 +4671,15 @@
       </c>
       <c r="U11">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V11">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <f t="shared" ca="1" si="1"/>
@@ -4687,31 +4687,31 @@
       </c>
       <c r="Y11">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD11">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
@@ -4720,11 +4720,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
@@ -4736,19 +4736,19 @@
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
@@ -4760,7 +4760,7 @@
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
@@ -4772,11 +4772,11 @@
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="0"/>
@@ -4784,39 +4784,39 @@
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
         <f t="shared" ca="1" si="1"/>
@@ -4824,19 +4824,19 @@
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
@@ -4845,11 +4845,11 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
@@ -4869,11 +4869,11 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
@@ -4885,7 +4885,7 @@
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="0"/>
@@ -4893,19 +4893,19 @@
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="1"/>
@@ -4913,35 +4913,35 @@
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T13">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U13">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA13">
         <f t="shared" ca="1" si="1"/>
@@ -5639,55 +5639,55 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(10,200)/10</f>
-        <v>17.7</v>
+        <v>18.5</v>
       </c>
       <c r="D2">
         <f ca="1">C2+RANDBETWEEN(10,100)/10</f>
-        <v>21.3</v>
+        <v>24.6</v>
       </c>
       <c r="E2">
         <f ca="1">D2+RANDBETWEEN(10,100)/10</f>
-        <v>22.8</v>
+        <v>29.1</v>
       </c>
       <c r="F2">
         <f ca="1">E2+RANDBETWEEN(10,100)/10</f>
-        <v>27.5</v>
+        <v>30.200000000000003</v>
       </c>
       <c r="G2">
         <f ca="1">F2+RANDBETWEEN(-10,100)/10</f>
-        <v>34</v>
+        <v>35.300000000000004</v>
       </c>
       <c r="H2">
         <f ca="1">G2+RANDBETWEEN(-10,100)/10</f>
-        <v>40</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="I2">
         <f ca="1">H2+RANDBETWEEN(-10,100)/10</f>
-        <v>47.2</v>
+        <v>38.6</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2:K11" ca="1" si="0">I2-RANDBETWEEN(10,50)/10</f>
-        <v>43.800000000000004</v>
+        <v>37.300000000000004</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>39.400000000000006</v>
+        <v>32.900000000000006</v>
       </c>
       <c r="L2">
         <f ca="1">K2/2+RANDBETWEEN(-50,100)/10</f>
-        <v>22.800000000000004</v>
+        <v>14.550000000000002</v>
       </c>
       <c r="M2">
         <f ca="1">L2/2+RANDBETWEEN(-50,100)/10</f>
-        <v>16.900000000000002</v>
+        <v>14.775000000000002</v>
       </c>
       <c r="N2">
         <f ca="1">M2/2+RANDBETWEEN(-50,100)/10</f>
-        <v>17.950000000000003</v>
+        <v>4.9875000000000007</v>
       </c>
       <c r="O2">
         <f ca="1">N2/2</f>
-        <v>8.9750000000000014</v>
+        <v>2.4937500000000004</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -5702,55 +5702,55 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C16" ca="1" si="1">RANDBETWEEN(10,200)/10</f>
-        <v>6.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:F16" ca="1" si="2">C3+RANDBETWEEN(10,100)/10</f>
-        <v>16.600000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="2"/>
-        <v>22.3</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="2"/>
-        <v>24.900000000000002</v>
+        <v>10.6</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:I16" ca="1" si="3">F3+RANDBETWEEN(-10,100)/10</f>
-        <v>29.6</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>22.4</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="3"/>
-        <v>44.9</v>
+        <v>31.2</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>42.699999999999996</v>
+        <v>26.4</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3" ca="1" si="4">J3-RANDBETWEEN(10,50)/10</f>
-        <v>41.699999999999996</v>
+        <v>23.7</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:N3" ca="1" si="5">K3/2+RANDBETWEEN(-50,100)/10</f>
-        <v>16.049999999999997</v>
+        <v>11.45</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.3249999999999984</v>
+        <v>6.5249999999999995</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="5"/>
-        <v>7.0625</v>
+        <v>8.0625</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O16" ca="1" si="6">N3/2</f>
-        <v>3.53125</v>
+        <v>4.03125</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -5765,55 +5765,55 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
-        <v>10.3</v>
+        <v>17.2</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="2"/>
-        <v>14.200000000000001</v>
+        <v>26.9</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="2"/>
-        <v>19.900000000000002</v>
+        <v>30.4</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="3"/>
-        <v>29.1</v>
+        <v>34.9</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="3"/>
-        <v>34.300000000000004</v>
+        <v>43.8</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="3"/>
-        <v>39.1</v>
+        <v>48.099999999999994</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>35.6</v>
+        <v>43.499999999999993</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4" ca="1" si="7">J4-RANDBETWEEN(10,50)/10</f>
-        <v>31.5</v>
+        <v>38.899999999999991</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:N4" ca="1" si="8">K4/2+RANDBETWEEN(-50,100)/10</f>
-        <v>10.95</v>
+        <v>23.549999999999997</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="8"/>
-        <v>8.1750000000000007</v>
+        <v>13.074999999999999</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="8"/>
-        <v>9.9875000000000007</v>
+        <v>11.337499999999999</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9937500000000004</v>
+        <v>5.6687499999999993</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -5828,19 +5828,19 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
-        <v>7.4</v>
+        <v>15.1</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="2"/>
-        <v>16.8</v>
+        <v>18.3</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>24.3</v>
+        <v>20.6</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="3"/>
@@ -5848,35 +5848,35 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="3"/>
-        <v>27.6</v>
+        <v>32.300000000000004</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="3"/>
-        <v>27.400000000000002</v>
+        <v>32.800000000000004</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>23.200000000000003</v>
+        <v>27.800000000000004</v>
       </c>
       <c r="K5">
         <f t="shared" ref="K5" ca="1" si="9">J5-RANDBETWEEN(10,50)/10</f>
-        <v>19.300000000000004</v>
+        <v>23.000000000000004</v>
       </c>
       <c r="L5">
         <f t="shared" ref="L5:N5" ca="1" si="10">K5/2+RANDBETWEEN(-50,100)/10</f>
-        <v>19.050000000000004</v>
+        <v>12.700000000000001</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="10"/>
-        <v>19.325000000000003</v>
+        <v>4.3500000000000005</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="10"/>
-        <v>12.762500000000001</v>
+        <v>3.1750000000000003</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="6"/>
-        <v>6.3812500000000005</v>
+        <v>1.5875000000000001</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -5891,55 +5891,55 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>10.4</v>
+        <v>9.4</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>18.399999999999999</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="2"/>
-        <v>22.799999999999997</v>
+        <v>14.4</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>25.099999999999998</v>
+        <v>22.6</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="3"/>
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="3"/>
-        <v>29.299999999999997</v>
+        <v>30</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="3"/>
-        <v>30.999999999999996</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>29.499999999999996</v>
+        <v>30.000000000000004</v>
       </c>
       <c r="K6">
         <f t="shared" ref="K6" ca="1" si="11">J6-RANDBETWEEN(10,50)/10</f>
-        <v>24.799999999999997</v>
+        <v>25.400000000000006</v>
       </c>
       <c r="L6">
         <f t="shared" ref="L6:N6" ca="1" si="12">K6/2+RANDBETWEEN(-50,100)/10</f>
-        <v>9.3999999999999986</v>
+        <v>14.800000000000002</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="12"/>
-        <v>1.4999999999999991</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="12"/>
-        <v>4.6499999999999995</v>
+        <v>12.7</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="6"/>
-        <v>2.3249999999999997</v>
+        <v>6.35</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -5954,55 +5954,55 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>9.6999999999999993</v>
+        <v>17.3</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>17.399999999999999</v>
+        <v>26.1</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
-        <v>25.7</v>
+        <v>36.1</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>29.599999999999998</v>
+        <v>40</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="3"/>
-        <v>38.599999999999994</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="3"/>
-        <v>45.599999999999994</v>
+        <v>48.599999999999994</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="3"/>
-        <v>45.999999999999993</v>
+        <v>50.399999999999991</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>42.999999999999993</v>
+        <v>48.79999999999999</v>
       </c>
       <c r="K7">
         <f t="shared" ref="K7" ca="1" si="13">J7-RANDBETWEEN(10,50)/10</f>
-        <v>38.599999999999994</v>
+        <v>45.999999999999993</v>
       </c>
       <c r="L7">
         <f t="shared" ref="L7:N7" ca="1" si="14">K7/2+RANDBETWEEN(-50,100)/10</f>
-        <v>26.499999999999996</v>
+        <v>26.899999999999995</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="14"/>
-        <v>22.15</v>
+        <v>11.149999999999999</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="14"/>
-        <v>14.674999999999999</v>
+        <v>1.8749999999999991</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="6"/>
-        <v>7.3374999999999995</v>
+        <v>0.93749999999999956</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -6017,55 +6017,55 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8000000000000007</v>
+        <v>12.1</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>18.700000000000003</v>
+        <v>15.6</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
-        <v>26.1</v>
+        <v>18.3</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>35.900000000000006</v>
+        <v>23.4</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="3"/>
-        <v>35.500000000000007</v>
+        <v>25.299999999999997</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="3"/>
-        <v>38.800000000000004</v>
+        <v>29.999999999999996</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="3"/>
-        <v>44.400000000000006</v>
+        <v>35.4</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>40.600000000000009</v>
+        <v>31.2</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" ca="1" si="15">J8-RANDBETWEEN(10,50)/10</f>
-        <v>38.400000000000006</v>
+        <v>27.8</v>
       </c>
       <c r="L8">
         <f t="shared" ref="L8:N8" ca="1" si="16">K8/2+RANDBETWEEN(-50,100)/10</f>
-        <v>27.700000000000003</v>
+        <v>21.7</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="16"/>
-        <v>17.950000000000003</v>
+        <v>10.549999999999999</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="16"/>
-        <v>18.775000000000002</v>
+        <v>1.4749999999999996</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="6"/>
-        <v>9.3875000000000011</v>
+        <v>0.73749999999999982</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -6080,55 +6080,55 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>27.5</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>31.4</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>34.199999999999996</v>
+        <v>25.3</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="3"/>
-        <v>40.599999999999994</v>
+        <v>25.2</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="3"/>
-        <v>49.899999999999991</v>
+        <v>34.6</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="3"/>
-        <v>50.399999999999991</v>
+        <v>40.800000000000004</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>46.499999999999993</v>
+        <v>39.800000000000004</v>
       </c>
       <c r="K9">
         <f t="shared" ref="K9" ca="1" si="17">J9-RANDBETWEEN(10,50)/10</f>
-        <v>44.099999999999994</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9:N9" ca="1" si="18">K9/2+RANDBETWEEN(-50,100)/10</f>
-        <v>31.849999999999998</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="18"/>
-        <v>15.824999999999999</v>
+        <v>4.9000000000000012</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="18"/>
-        <v>14.612500000000001</v>
+        <v>11.950000000000001</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="6"/>
-        <v>7.3062500000000004</v>
+        <v>5.9750000000000005</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -6143,55 +6143,55 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9</v>
+        <v>14.4</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>9.6999999999999993</v>
+        <v>22.9</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
-        <v>11.899999999999999</v>
+        <v>32.099999999999994</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>14.999999999999998</v>
+        <v>39.899999999999991</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>19.5</v>
+        <v>45.599999999999994</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="3"/>
-        <v>20.2</v>
+        <v>53.8</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="3"/>
-        <v>28.9</v>
+        <v>54.3</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>27.4</v>
+        <v>52.699999999999996</v>
       </c>
       <c r="K10">
         <f t="shared" ref="K10" ca="1" si="19">J10-RANDBETWEEN(10,50)/10</f>
-        <v>25.299999999999997</v>
+        <v>48.9</v>
       </c>
       <c r="L10">
         <f t="shared" ref="L10:N10" ca="1" si="20">K10/2+RANDBETWEEN(-50,100)/10</f>
-        <v>21.45</v>
+        <v>22.25</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="20"/>
-        <v>8.7249999999999996</v>
+        <v>7.8250000000000002</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="20"/>
-        <v>9.1624999999999996</v>
+        <v>1.2124999999999999</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="6"/>
-        <v>4.5812499999999998</v>
+        <v>0.60624999999999996</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>18.3</v>
+        <v>18.7</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
@@ -6214,47 +6214,47 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>33.5</v>
+        <v>29.6</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>41.4</v>
+        <v>38</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="3"/>
-        <v>48.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="3"/>
-        <v>55.4</v>
+        <v>42.9</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>51.699999999999996</v>
+        <v>40.9</v>
       </c>
       <c r="K11">
         <f t="shared" ref="K11" ca="1" si="21">J11-RANDBETWEEN(10,50)/10</f>
-        <v>49.4</v>
+        <v>39.699999999999996</v>
       </c>
       <c r="L11">
         <f t="shared" ref="L11:N11" ca="1" si="22">K11/2+RANDBETWEEN(-50,100)/10</f>
-        <v>28.3</v>
+        <v>22.65</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="22"/>
-        <v>19.649999999999999</v>
+        <v>17.625</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="22"/>
-        <v>18.824999999999999</v>
+        <v>14.512499999999999</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="6"/>
-        <v>9.4124999999999996</v>
+        <v>7.2562499999999996</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -6269,55 +6269,55 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>17.899999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>25.299999999999997</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="2"/>
-        <v>33.599999999999994</v>
+        <v>21</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>39.799999999999997</v>
+        <v>27.4</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>28.2</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="3"/>
-        <v>46.2</v>
+        <v>32.6</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="3"/>
-        <v>51.1</v>
+        <v>40.4</v>
       </c>
       <c r="J12">
         <f ca="1">I12-RANDBETWEEN(10,50)/10</f>
-        <v>49.9</v>
+        <v>38.5</v>
       </c>
       <c r="K12">
         <f t="shared" ref="K12" ca="1" si="23">J12-RANDBETWEEN(10,50)/10</f>
-        <v>46.6</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="L12">
         <f t="shared" ref="L12:N12" ca="1" si="24">K12/2+RANDBETWEEN(-50,100)/10</f>
-        <v>21.6</v>
+        <v>18.299999999999997</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="24"/>
-        <v>20.200000000000003</v>
+        <v>6.2499999999999982</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="24"/>
-        <v>19.600000000000001</v>
+        <v>9.7249999999999979</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="6"/>
-        <v>9.8000000000000007</v>
+        <v>4.8624999999999989</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -6332,55 +6332,55 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>2.6</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>20.9</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>12.3</v>
+        <v>24.5</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>16.600000000000001</v>
+        <v>28</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="3"/>
-        <v>16.600000000000001</v>
+        <v>33.9</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="3"/>
-        <v>16.700000000000003</v>
+        <v>42.8</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="3"/>
-        <v>24.000000000000004</v>
+        <v>47.5</v>
       </c>
       <c r="J13">
         <f t="shared" ref="J13:K16" ca="1" si="25">I13-RANDBETWEEN(10,50)/10</f>
-        <v>22.100000000000005</v>
+        <v>45.7</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="25"/>
-        <v>18.900000000000006</v>
+        <v>42.5</v>
       </c>
       <c r="L13">
         <f t="shared" ref="L13:N13" ca="1" si="26">K13/2+RANDBETWEEN(-50,100)/10</f>
-        <v>16.050000000000004</v>
+        <v>27.65</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="26"/>
-        <v>13.925000000000002</v>
+        <v>23.625</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="26"/>
-        <v>11.662500000000001</v>
+        <v>18.412500000000001</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="6"/>
-        <v>5.8312500000000007</v>
+        <v>9.2062500000000007</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -6395,55 +6395,55 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>13.8</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="2"/>
-        <v>16.400000000000002</v>
+        <v>21.799999999999997</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>24.5</v>
+        <v>23.9</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="3"/>
-        <v>23.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="3"/>
-        <v>40.299999999999997</v>
+        <v>36.099999999999994</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="25"/>
-        <v>35.699999999999996</v>
+        <v>33.499999999999993</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="25"/>
-        <v>32.299999999999997</v>
+        <v>30.699999999999992</v>
       </c>
       <c r="L14">
         <f t="shared" ref="L14:N14" ca="1" si="27">K14/2+RANDBETWEEN(-50,100)/10</f>
-        <v>22.049999999999997</v>
+        <v>18.949999999999996</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="27"/>
-        <v>14.124999999999998</v>
+        <v>14.274999999999999</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="27"/>
-        <v>9.9624999999999986</v>
+        <v>5.5374999999999996</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9812499999999993</v>
+        <v>2.7687499999999998</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -6458,55 +6458,55 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>9.6</v>
+        <v>22.8</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>15.8</v>
+        <v>26.8</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>23.6</v>
+        <v>30.400000000000002</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="3"/>
-        <v>29.1</v>
+        <v>29.500000000000004</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="3"/>
-        <v>30.6</v>
+        <v>35.800000000000004</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>40.400000000000006</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="25"/>
-        <v>28</v>
+        <v>37.600000000000009</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="25"/>
-        <v>25.7</v>
+        <v>36.400000000000006</v>
       </c>
       <c r="L15">
         <f t="shared" ref="L15:N15" ca="1" si="28">K15/2+RANDBETWEEN(-50,100)/10</f>
-        <v>22.85</v>
+        <v>14.000000000000004</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="28"/>
-        <v>20.024999999999999</v>
+        <v>3.9000000000000017</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="28"/>
-        <v>11.4125</v>
+        <v>-1.849999999999999</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="6"/>
-        <v>5.7062499999999998</v>
+        <v>-0.92499999999999949</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -6521,55 +6521,55 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>10.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>17.700000000000003</v>
+        <v>11.4</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>24.700000000000003</v>
+        <v>18.7</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="3"/>
-        <v>27.800000000000004</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="3"/>
-        <v>35.1</v>
+        <v>20.5</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="3"/>
-        <v>44.2</v>
+        <v>23.5</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="25"/>
-        <v>42.800000000000004</v>
+        <v>20.3</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="25"/>
-        <v>39.300000000000004</v>
+        <v>15.700000000000001</v>
       </c>
       <c r="L16">
         <f t="shared" ref="L16:N16" ca="1" si="29">K16/2+RANDBETWEEN(-50,100)/10</f>
-        <v>19.750000000000004</v>
+        <v>13.350000000000001</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="29"/>
-        <v>5.7750000000000021</v>
+        <v>6.1750000000000007</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="29"/>
-        <v>2.8875000000000011</v>
+        <v>2.2875000000000005</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4437500000000005</v>
+        <v>1.1437500000000003</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -6688,87 +6688,87 @@
       </c>
       <c r="B3">
         <f ca="1">RANDBETWEEN(0,50)/100</f>
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:H18" ca="1" si="0">RANDBETWEEN(0,50)/100</f>
+        <v>0.3</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.38</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
         <v>0.17</v>
       </c>
-      <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.17</v>
-      </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47</v>
+        <v>0.25</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35</v>
+        <v>0.09</v>
       </c>
       <c r="I3">
         <f ca="1">RANDBETWEEN(50,80)/100-B3</f>
-        <v>0.67999999999999994</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:O3" ca="1" si="1">RANDBETWEEN(50,80)/100-C3</f>
-        <v>0.55999999999999994</v>
+        <v>0.22000000000000003</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53999999999999992</v>
+        <v>0.69</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49999999999999994</v>
+        <v>0.18999999999999995</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43999999999999995</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22999999999999998</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="P3">
         <f ca="1">1-B3-I3</f>
-        <v>0.30000000000000004</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:V3" ca="1" si="2">1-C3-J3</f>
-        <v>0.27</v>
+        <v>0.47999999999999993</v>
       </c>
       <c r="R3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43000000000000005</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="S3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="T3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39</v>
+        <v>0.49</v>
       </c>
       <c r="U3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30000000000000004</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="V3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33999999999999997</v>
+        <v>0.41000000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
@@ -6777,87 +6777,87 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:H32" ca="1" si="3">RANDBETWEEN(0,50)/100</f>
-        <v>0.19</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27</v>
+        <v>0.06</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.46</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
+        <v>0.37</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.38</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
         <v>0.23</v>
       </c>
-      <c r="F4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.06</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.32</v>
-      </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I32" ca="1" si="4">RANDBETWEEN(50,80)/100-B4</f>
-        <v>0.38999999999999996</v>
+        <v>0.6100000000000001</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J32" ca="1" si="5">RANDBETWEEN(50,80)/100-C4</f>
-        <v>0.37</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K32" ca="1" si="6">RANDBETWEEN(50,80)/100-D4</f>
-        <v>0.48</v>
+        <v>0.22999999999999993</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L32" ca="1" si="7">RANDBETWEEN(50,80)/100-E4</f>
-        <v>0.48</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M32" ca="1" si="8">RANDBETWEEN(50,80)/100-F4</f>
-        <v>0.62999999999999989</v>
+        <v>0.39</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N32" ca="1" si="9">RANDBETWEEN(50,80)/100-G4</f>
-        <v>0.23000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4:O32" ca="1" si="10">RANDBETWEEN(50,80)/100-H4</f>
-        <v>0.45</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="P4">
         <f t="shared" ref="P4:P32" ca="1" si="11">1-B4-I4</f>
-        <v>0.4200000000000001</v>
+        <v>0.31999999999999984</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q32" ca="1" si="12">1-C4-J4</f>
-        <v>0.36</v>
+        <v>0.37999999999999989</v>
       </c>
       <c r="R4">
         <f t="shared" ref="R4:R32" ca="1" si="13">1-D4-K4</f>
-        <v>0.43000000000000005</v>
+        <v>0.31000000000000011</v>
       </c>
       <c r="S4">
         <f t="shared" ref="S4:S32" ca="1" si="14">1-E4-L4</f>
-        <v>0.29000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="T4">
         <f t="shared" ref="T4:T32" ca="1" si="15">1-F4-M4</f>
-        <v>0.31000000000000005</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="U4">
         <f t="shared" ref="U4:U32" ca="1" si="16">1-G4-N4</f>
-        <v>0.4499999999999999</v>
+        <v>0.37</v>
       </c>
       <c r="V4">
         <f t="shared" ref="V4:V32" ca="1" si="17">1-H4-O4</f>
-        <v>0.49999999999999994</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
@@ -6866,87 +6866,87 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
+        <v>0.21</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
         <v>0.11</v>
       </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>0.39</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43000000000000005</v>
+        <v>0.29999999999999993</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="6"/>
-        <v>0.74</v>
+        <v>0.47000000000000003</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="7"/>
-        <v>0.57999999999999996</v>
+        <v>0.67</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="8"/>
-        <v>0.55000000000000004</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="9"/>
-        <v>0.48000000000000004</v>
+        <v>0.48</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="10"/>
-        <v>0.36999999999999994</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="11"/>
-        <v>0.33999999999999991</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="12"/>
-        <v>0.20999999999999996</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="13"/>
-        <v>0.20999999999999996</v>
+        <v>0.46999999999999992</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="14"/>
-        <v>0.42000000000000004</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="15"/>
-        <v>0.33999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="U5">
         <f t="shared" ca="1" si="16"/>
-        <v>0.4499999999999999</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="V5">
         <f t="shared" ca="1" si="17"/>
-        <v>0.4300000000000001</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
@@ -6955,31 +6955,31 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.03</v>
+        <v>0.24</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49</v>
+        <v>0.08</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19</v>
+        <v>0.01</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="4"/>
@@ -6987,55 +6987,55 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0000000000000044E-2</v>
+        <v>0.58000000000000007</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="6"/>
-        <v>0.5</v>
+        <v>0.42999999999999994</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="7"/>
-        <v>0.48000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="8"/>
-        <v>0.74</v>
+        <v>0.34</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.21000000000000008</v>
+        <v>0.6</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="10"/>
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="11"/>
-        <v>0.49</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="12"/>
-        <v>0.45999999999999996</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.20999999999999996</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="14"/>
-        <v>0.33</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="15"/>
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="U6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.43999999999999995</v>
+        <v>0.35</v>
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="17"/>
-        <v>0.30000000000000004</v>
+        <v>0.49999999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
@@ -7044,87 +7044,87 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39</v>
+        <v>0.01</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.49</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.44</v>
+      </c>
+      <c r="H7">
         <f t="shared" ca="1" si="0"/>
         <v>0.35</v>
-      </c>
-      <c r="G7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.21</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4</v>
+        <v>0.69</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="5"/>
-        <v>0.71</v>
+        <v>0.31</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="6"/>
-        <v>0.17000000000000004</v>
+        <v>0.64999999999999991</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="7"/>
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.44000000000000006</v>
+        <v>0.52</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="9"/>
-        <v>0.47000000000000008</v>
+        <v>0.31</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="10"/>
-        <v>0.67</v>
+        <v>0.36</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="11"/>
-        <v>0.20999999999999996</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="12"/>
-        <v>0.25</v>
+        <v>0.34999999999999992</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="13"/>
-        <v>0.33999999999999997</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="14"/>
-        <v>0.45999999999999996</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="T7">
         <f t="shared" ca="1" si="15"/>
-        <v>0.20999999999999996</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="U7">
         <f t="shared" ca="1" si="16"/>
-        <v>0.31999999999999995</v>
+        <v>0.25000000000000006</v>
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="17"/>
-        <v>0.21999999999999997</v>
+        <v>0.29000000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
@@ -7133,35 +7133,35 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28000000000000003</v>
+        <v>0.21</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.33</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44</v>
+        <v>0.34</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45999999999999996</v>
+        <v>0.51</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="5"/>
@@ -7169,51 +7169,51 @@
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.47000000000000003</v>
+        <v>0.7</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.56999999999999995</v>
+        <v>0.37999999999999995</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="8"/>
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.23000000000000004</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="10"/>
-        <v>0.16999999999999998</v>
+        <v>0.46</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="11"/>
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.47</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="13"/>
-        <v>0.46999999999999992</v>
+        <v>0.26</v>
       </c>
       <c r="S8">
         <f t="shared" ca="1" si="14"/>
-        <v>0.38</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="T8">
         <f t="shared" ca="1" si="15"/>
-        <v>0.25</v>
+        <v>0.22999999999999993</v>
       </c>
       <c r="U8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="V8">
         <f t="shared" ca="1" si="17"/>
-        <v>0.39000000000000007</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
@@ -7222,87 +7222,87 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.09</v>
+        <v>0.37</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13</v>
+        <v>0.43</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.37</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="4"/>
-        <v>0.67</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47</v>
+        <v>0.18</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="6"/>
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="7"/>
-        <v>0.66</v>
+        <v>0.31000000000000005</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="9"/>
-        <v>0.19000000000000006</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="10"/>
-        <v>0.28999999999999998</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="11"/>
-        <v>0.24</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.4</v>
+        <v>0.39000000000000007</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="13"/>
-        <v>0.41000000000000003</v>
+        <v>0.26000000000000006</v>
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="14"/>
-        <v>0.22999999999999998</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="T9">
         <f t="shared" ca="1" si="15"/>
-        <v>0.26000000000000006</v>
+        <v>0.27</v>
       </c>
       <c r="U9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.43999999999999995</v>
+        <v>0.4</v>
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="17"/>
-        <v>0.38999999999999996</v>
+        <v>0.43000000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
@@ -7311,87 +7311,87 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46</v>
+        <v>0.01</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18</v>
+        <v>0.39</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49000000000000005</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="5"/>
-        <v>0.22000000000000003</v>
+        <v>0.77</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="6"/>
-        <v>0.41</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="7"/>
-        <v>0.35999999999999993</v>
+        <v>0.22000000000000003</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="8"/>
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="9"/>
-        <v>0.5</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.48000000000000004</v>
+        <v>0.38</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.33</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="12"/>
-        <v>0.32</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.27999999999999997</v>
+        <v>0.38999999999999996</v>
       </c>
       <c r="S10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.3</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="T10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.49000000000000005</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="U10">
         <f t="shared" ca="1" si="16"/>
-        <v>0.33999999999999997</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="17"/>
-        <v>0.47999999999999993</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
@@ -7400,87 +7400,87 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47</v>
+        <v>0.21</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44</v>
+        <v>0.35</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>0.41</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34</v>
+        <v>0.16</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45</v>
+        <v>0.23</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21000000000000008</v>
+        <v>0.4</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15000000000000002</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="6"/>
-        <v>0.12000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="7"/>
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="8"/>
-        <v>0.42000000000000004</v>
+        <v>0.52</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="9"/>
-        <v>0.36999999999999994</v>
+        <v>0.36</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="10"/>
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="11"/>
-        <v>0.31999999999999995</v>
+        <v>0.39</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="12"/>
-        <v>0.45999999999999996</v>
+        <v>0.3299999999999999</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="13"/>
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="S11">
         <f t="shared" ca="1" si="14"/>
-        <v>0.38999999999999996</v>
+        <v>0.28000000000000008</v>
       </c>
       <c r="T11">
         <f t="shared" ca="1" si="15"/>
-        <v>0.32999999999999996</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="U11">
         <f t="shared" ca="1" si="16"/>
-        <v>0.28999999999999998</v>
+        <v>0.48</v>
       </c>
       <c r="V11">
         <f t="shared" ca="1" si="17"/>
-        <v>0.35000000000000003</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
@@ -7489,87 +7489,87 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41</v>
+        <v>0.1</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32</v>
+        <v>0.45</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47</v>
+        <v>0.25</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.34</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34</v>
+        <v>0.44</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
+        <v>0.13</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11000000000000004</v>
+        <v>0.64</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18</v>
+        <v>0.10000000000000003</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="6"/>
-        <v>7.0000000000000062E-2</v>
+        <v>0.51</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="7"/>
-        <v>0.55000000000000004</v>
+        <v>0.42</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="8"/>
-        <v>0.24999999999999994</v>
+        <v>0.16999999999999998</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="9"/>
-        <v>0.18999999999999995</v>
+        <v>0.51</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="10"/>
-        <v>0.55000000000000004</v>
+        <v>0.38000000000000006</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="11"/>
-        <v>0.48000000000000004</v>
+        <v>0.26</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="12"/>
-        <v>0.49999999999999994</v>
+        <v>0.45</v>
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="13"/>
-        <v>0.45999999999999996</v>
+        <v>0.24</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="14"/>
-        <v>0.43999999999999995</v>
+        <v>0.23999999999999994</v>
       </c>
       <c r="T12">
         <f t="shared" ca="1" si="15"/>
-        <v>0.41</v>
+        <v>0.39000000000000007</v>
       </c>
       <c r="U12">
         <f t="shared" ca="1" si="16"/>
-        <v>0.41000000000000003</v>
+        <v>0.36</v>
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="17"/>
-        <v>0.3899999999999999</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
@@ -7578,87 +7578,87 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47</v>
+        <v>0.3</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.36</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32</v>
+        <v>0.49</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.31</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22999999999999998</v>
+        <v>0.26999999999999996</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="6"/>
-        <v>0.35</v>
+        <v>0.24</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="7"/>
-        <v>0.35000000000000003</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="8"/>
-        <v>0.28999999999999998</v>
+        <v>0.23999999999999994</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="9"/>
-        <v>0.17000000000000004</v>
+        <v>0.20000000000000007</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="10"/>
-        <v>0.42000000000000004</v>
+        <v>0.37999999999999995</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="11"/>
-        <v>0.30000000000000004</v>
+        <v>0.43</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="12"/>
-        <v>0.5</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="13"/>
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="14"/>
-        <v>0.3299999999999999</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T13">
         <f t="shared" ca="1" si="15"/>
-        <v>0.41</v>
+        <v>0.31000000000000011</v>
       </c>
       <c r="U13">
         <f t="shared" ca="1" si="16"/>
-        <v>0.36</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.49</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
@@ -7667,15 +7667,15 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13</v>
+        <v>0.44</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
@@ -7683,51 +7683,51 @@
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34</v>
+        <v>0.47</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18</v>
+        <v>0.48</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44999999999999996</v>
+        <v>0.12999999999999995</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="5"/>
-        <v>0.71000000000000008</v>
+        <v>0.58000000000000007</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="6"/>
-        <v>0.48</v>
+        <v>0.72</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="7"/>
-        <v>0.24</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="8"/>
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="9"/>
-        <v>0.60000000000000009</v>
+        <v>0.26</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.28999999999999998</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="11"/>
-        <v>0.42000000000000004</v>
+        <v>0.4300000000000001</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="12"/>
-        <v>0.19999999999999996</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="13"/>
@@ -7735,19 +7735,19 @@
       </c>
       <c r="S14">
         <f t="shared" ca="1" si="14"/>
-        <v>0.28000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="T14">
         <f t="shared" ca="1" si="15"/>
-        <v>0.33999999999999991</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="U14">
         <f t="shared" ca="1" si="16"/>
-        <v>0.21999999999999997</v>
+        <v>0.26</v>
       </c>
       <c r="V14">
         <f t="shared" ca="1" si="17"/>
-        <v>0.27000000000000007</v>
+        <v>0.3000000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
@@ -7756,87 +7756,87 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43</v>
+        <v>0.15</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44000000000000006</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32000000000000006</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="6"/>
-        <v>0.10999999999999999</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="7"/>
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="8"/>
-        <v>0.27</v>
+        <v>0.76</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="9"/>
-        <v>0.46</v>
+        <v>0.59</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="10"/>
-        <v>0.3</v>
+        <v>0.63</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="11"/>
-        <v>0.32999999999999996</v>
+        <v>0.48</v>
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="12"/>
-        <v>0.32999999999999996</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="13"/>
-        <v>0.39</v>
+        <v>0.3199999999999999</v>
       </c>
       <c r="S15">
         <f t="shared" ca="1" si="14"/>
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="T15">
         <f t="shared" ca="1" si="15"/>
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="U15">
         <f t="shared" ca="1" si="16"/>
-        <v>0.23999999999999994</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="V15">
         <f t="shared" ca="1" si="17"/>
-        <v>0.27000000000000007</v>
+        <v>0.21999999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
@@ -7845,87 +7845,87 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.02</v>
+        <v>0.47</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="F16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.24</v>
-      </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.35</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22</v>
+        <v>0.35</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="4"/>
-        <v>0.6</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="5"/>
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="6"/>
-        <v>0.47000000000000003</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.42000000000000004</v>
+        <v>0.49</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="8"/>
-        <v>0.42000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="9"/>
-        <v>0.48000000000000004</v>
+        <v>0.26</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="10"/>
-        <v>0.51</v>
+        <v>0.35</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="11"/>
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="12"/>
-        <v>0.36</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="13"/>
-        <v>0.1999999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="S16">
         <f t="shared" ca="1" si="14"/>
-        <v>0.33999999999999997</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="T16">
         <f t="shared" ca="1" si="15"/>
-        <v>0.33999999999999997</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="U16">
         <f t="shared" ca="1" si="16"/>
-        <v>0.4499999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="V16">
         <f t="shared" ca="1" si="17"/>
-        <v>0.27</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
@@ -7934,87 +7934,87 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.09</v>
+        <v>0.3</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.15</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49</v>
+        <v>0.31</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="5"/>
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.72</v>
+        <v>0.45</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.54999999999999993</v>
+        <v>0.45</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="8"/>
-        <v>0.51</v>
+        <v>0.39</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.31</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="10"/>
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="11"/>
-        <v>0.42000000000000004</v>
+        <v>0.38999999999999996</v>
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="12"/>
-        <v>0.29000000000000004</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="13"/>
-        <v>0.21999999999999997</v>
+        <v>0.47000000000000003</v>
       </c>
       <c r="S17">
         <f t="shared" ca="1" si="14"/>
-        <v>0.29000000000000004</v>
+        <v>0.25999999999999995</v>
       </c>
       <c r="T17">
         <f t="shared" ca="1" si="15"/>
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="U17">
         <f t="shared" ca="1" si="16"/>
-        <v>0.23000000000000004</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="V17">
         <f t="shared" ca="1" si="17"/>
-        <v>0.25</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
@@ -8023,87 +8023,87 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
+        <v>0.42</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.22</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="0"/>
         <v>0.45</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="G18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.24</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.06</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59000000000000008</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="5"/>
-        <v>0.23000000000000004</v>
+        <v>0.31</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="6"/>
-        <v>0.27</v>
+        <v>0.47</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="7"/>
-        <v>0.20999999999999996</v>
+        <v>0.4</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="8"/>
-        <v>0.47000000000000003</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="9"/>
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="10"/>
-        <v>0.58000000000000007</v>
+        <v>0.25999999999999995</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="11"/>
-        <v>0.19999999999999996</v>
+        <v>0.35999999999999993</v>
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="12"/>
-        <v>0.32</v>
+        <v>0.27000000000000007</v>
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="13"/>
-        <v>0.32999999999999996</v>
+        <v>0.37</v>
       </c>
       <c r="S18">
         <f t="shared" ca="1" si="14"/>
-        <v>0.29000000000000004</v>
+        <v>0.38</v>
       </c>
       <c r="T18">
         <f t="shared" ca="1" si="15"/>
-        <v>0.33</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="U18">
         <f t="shared" ca="1" si="16"/>
-        <v>0.28000000000000003</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="V18">
         <f t="shared" ca="1" si="17"/>
-        <v>0.35999999999999988</v>
+        <v>0.29000000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
@@ -8112,87 +8112,87 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18</v>
+        <v>0.48</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31</v>
+        <v>0.13</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11</v>
+        <v>0.37</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47</v>
+        <v>0.15</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.44000000000000006</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.5</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="7"/>
-        <v>0.32</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="8"/>
-        <v>0.44000000000000006</v>
+        <v>0.38</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="9"/>
-        <v>0.48</v>
+        <v>0.53999999999999992</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="10"/>
-        <v>0.14000000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="11"/>
-        <v>0.31000000000000005</v>
+        <v>0.4</v>
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.19999999999999996</v>
+        <v>0.42</v>
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.32000000000000006</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="S19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.36999999999999994</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T19">
         <f t="shared" ca="1" si="15"/>
-        <v>0.44999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="U19">
         <f t="shared" ca="1" si="16"/>
-        <v>0.43000000000000005</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="V19">
         <f t="shared" ca="1" si="17"/>
-        <v>0.39</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
@@ -8205,27 +8205,27 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.49</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.47</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="3"/>
         <v>0.12</v>
       </c>
-      <c r="D20">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.45</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.31</v>
-      </c>
-      <c r="F20">
+      <c r="G20">
         <f t="shared" ca="1" si="3"/>
         <v>0.36</v>
       </c>
-      <c r="G20">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.23</v>
-      </c>
       <c r="H20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="4"/>
@@ -8233,27 +8233,27 @@
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="6"/>
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.47000000000000003</v>
+        <v>9.000000000000008E-2</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.26</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="9"/>
-        <v>0.31000000000000005</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="10"/>
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="11"/>
@@ -8261,27 +8261,27 @@
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="12"/>
-        <v>0.38</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="13"/>
-        <v>0.49000000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="S20">
         <f t="shared" ca="1" si="14"/>
-        <v>0.21999999999999992</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="T20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.38</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="U20">
         <f t="shared" ca="1" si="16"/>
-        <v>0.45999999999999996</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="V20">
         <f t="shared" ca="1" si="17"/>
-        <v>0.27</v>
+        <v>0.33999999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.15">
@@ -8290,87 +8290,87 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="3"/>
+        <v>0.26</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="3"/>
         <v>0.48</v>
       </c>
-      <c r="C21">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
-      </c>
       <c r="D21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23</v>
+        <v>0.04</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45</v>
+        <v>0.26</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31</v>
+        <v>0.16</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="4"/>
-        <v>0.29000000000000004</v>
+        <v>0.35</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16000000000000003</v>
+        <v>0.19000000000000006</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="6"/>
-        <v>0.44999999999999996</v>
+        <v>0.37000000000000005</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="7"/>
-        <v>0.36</v>
+        <v>0.73</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="8"/>
-        <v>0.11000000000000004</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="9"/>
-        <v>0.30000000000000004</v>
+        <v>0.38000000000000006</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="10"/>
-        <v>0.46</v>
+        <v>0.59</v>
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="11"/>
-        <v>0.22999999999999998</v>
+        <v>0.39</v>
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="12"/>
-        <v>0.33999999999999997</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="13"/>
-        <v>0.43000000000000005</v>
+        <v>0.3299999999999999</v>
       </c>
       <c r="S21">
         <f t="shared" ca="1" si="14"/>
-        <v>0.41000000000000003</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="T21">
         <f t="shared" ca="1" si="15"/>
-        <v>0.44</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="U21">
         <f t="shared" ca="1" si="16"/>
-        <v>0.44999999999999996</v>
+        <v>0.3199999999999999</v>
       </c>
       <c r="V21">
         <f t="shared" ca="1" si="17"/>
-        <v>0.22999999999999993</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
@@ -8379,87 +8379,87 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48</v>
+        <v>0.02</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21</v>
+        <v>0.37</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48</v>
+        <v>0.08</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48</v>
+        <v>0.27</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13</v>
+        <v>0.52</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="7"/>
-        <v>0.68</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="8"/>
-        <v>0.4</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="9"/>
-        <v>0.20999999999999996</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="10"/>
-        <v>6.0000000000000053E-2</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="11"/>
-        <v>0.39</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="12"/>
-        <v>0.48</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="R22">
         <f t="shared" ca="1" si="13"/>
-        <v>0.49999999999999994</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="S22">
         <f t="shared" ca="1" si="14"/>
-        <v>0.31999999999999995</v>
+        <v>0.39</v>
       </c>
       <c r="T22">
         <f t="shared" ca="1" si="15"/>
-        <v>0.39</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="U22">
         <f t="shared" ca="1" si="16"/>
-        <v>0.31000000000000005</v>
+        <v>0.36</v>
       </c>
       <c r="V22">
         <f t="shared" ca="1" si="17"/>
-        <v>0.45999999999999996</v>
+        <v>0.29000000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
@@ -8468,87 +8468,87 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47</v>
+        <v>0.21</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.01</v>
+        <v>0.17</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28000000000000003</v>
+        <v>0.51</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25999999999999995</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="6"/>
-        <v>0.44</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="7"/>
-        <v>0.71000000000000008</v>
+        <v>0.72</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="8"/>
-        <v>0.41000000000000003</v>
+        <v>0.42999999999999994</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="9"/>
-        <v>0.77</v>
+        <v>0.62</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="10"/>
-        <v>0.48</v>
+        <v>0.71</v>
       </c>
       <c r="P23">
         <f t="shared" ca="1" si="11"/>
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="12"/>
-        <v>0.43</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="R23">
         <f t="shared" ca="1" si="13"/>
-        <v>0.48999999999999994</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="S23">
         <f t="shared" ca="1" si="14"/>
-        <v>0.20999999999999996</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="T23">
         <f t="shared" ca="1" si="15"/>
-        <v>0.38</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="U23">
         <f t="shared" ca="1" si="16"/>
-        <v>0.21999999999999997</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="V23">
         <f t="shared" ca="1" si="17"/>
-        <v>0.39</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
@@ -8557,67 +8557,67 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="3"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.09</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="3"/>
         <v>0.08</v>
       </c>
-      <c r="C24">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.44</v>
-      </c>
-      <c r="D24">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.37</v>
-      </c>
-      <c r="E24">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="F24">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="G24">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.25</v>
-      </c>
       <c r="H24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60000000000000009</v>
+        <v>0.21000000000000002</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="5"/>
-        <v>0.34</v>
+        <v>0.6</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="6"/>
-        <v>0.22999999999999998</v>
+        <v>0.51</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="7"/>
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="8"/>
-        <v>0.6</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="9"/>
-        <v>0.35</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="10"/>
-        <v>0.29000000000000004</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="11"/>
-        <v>0.31999999999999995</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="12"/>
-        <v>0.22000000000000003</v>
+        <v>0.38</v>
       </c>
       <c r="R24">
         <f t="shared" ca="1" si="13"/>
@@ -8625,19 +8625,19 @@
       </c>
       <c r="S24">
         <f t="shared" ca="1" si="14"/>
-        <v>0.49999999999999994</v>
+        <v>0.26</v>
       </c>
       <c r="T24">
         <f t="shared" ca="1" si="15"/>
-        <v>0.35</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="U24">
         <f t="shared" ca="1" si="16"/>
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="V24">
         <f t="shared" ca="1" si="17"/>
-        <v>0.44999999999999996</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
@@ -8646,87 +8646,87 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="3"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.36</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="3"/>
         <v>0.47</v>
       </c>
-      <c r="C25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.25</v>
-      </c>
-      <c r="D25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.13</v>
-      </c>
       <c r="E25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.04</v>
+        <v>0.31</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18000000000000005</v>
+        <v>0.51</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="5"/>
-        <v>0.52</v>
+        <v>0.37</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="6"/>
-        <v>0.38</v>
+        <v>0.21000000000000008</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="7"/>
-        <v>0.57999999999999996</v>
+        <v>0.37999999999999995</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="8"/>
-        <v>0.38000000000000006</v>
+        <v>0.18999999999999995</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="9"/>
-        <v>0.11000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="10"/>
-        <v>0.55999999999999994</v>
+        <v>0.46000000000000008</v>
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="11"/>
-        <v>0.35</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="12"/>
-        <v>0.22999999999999998</v>
+        <v>0.27</v>
       </c>
       <c r="R25">
         <f t="shared" ca="1" si="13"/>
-        <v>0.49</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="S25">
         <f t="shared" ca="1" si="14"/>
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="T25">
         <f t="shared" ca="1" si="15"/>
-        <v>0.3199999999999999</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="U25">
         <f t="shared" ca="1" si="16"/>
-        <v>0.44</v>
+        <v>0.47999999999999993</v>
       </c>
       <c r="V25">
         <f t="shared" ca="1" si="17"/>
-        <v>0.31000000000000005</v>
+        <v>0.31999999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
@@ -8735,87 +8735,87 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.09</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.11</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.33</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.22</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="3"/>
         <v>0.05</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.36</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="F26">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.35</v>
-      </c>
-      <c r="G26">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H26">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.15</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51999999999999991</v>
+        <v>0.39</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18000000000000005</v>
+        <v>0.52</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="7"/>
-        <v>0.15000000000000002</v>
+        <v>0.23999999999999994</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="8"/>
-        <v>0.32000000000000006</v>
+        <v>0.36</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="9"/>
-        <v>0.56000000000000005</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="10"/>
-        <v>0.54999999999999993</v>
+        <v>0.59</v>
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="11"/>
-        <v>0.43000000000000005</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="12"/>
-        <v>0.45999999999999996</v>
+        <v>0.39</v>
       </c>
       <c r="R26">
         <f t="shared" ca="1" si="13"/>
-        <v>0.5</v>
+        <v>0.37</v>
       </c>
       <c r="S26">
         <f t="shared" ca="1" si="14"/>
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="T26">
         <f t="shared" ca="1" si="15"/>
-        <v>0.32999999999999996</v>
+        <v>0.49</v>
       </c>
       <c r="U26">
         <f t="shared" ca="1" si="16"/>
-        <v>0.36999999999999988</v>
+        <v>0.36</v>
       </c>
       <c r="V26">
         <f t="shared" ca="1" si="17"/>
-        <v>0.30000000000000004</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
@@ -8824,87 +8824,87 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12</v>
+        <v>0.36</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="3"/>
+        <v>0.44</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="3"/>
         <v>0.24</v>
       </c>
-      <c r="D27">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.03</v>
-      </c>
       <c r="E27">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.26</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42</v>
+        <v>0.15</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21</v>
+        <v>0.46</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33</v>
+        <v>0.45</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31000000000000005</v>
+        <v>0.12999999999999995</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="6"/>
-        <v>0.6</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="7"/>
-        <v>0.62999999999999989</v>
+        <v>0.4</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="8"/>
-        <v>0.16999999999999998</v>
+        <v>0.47</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="9"/>
-        <v>0.30000000000000004</v>
+        <v>0.12999999999999995</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="10"/>
-        <v>0.34</v>
+        <v>0.11999999999999994</v>
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="11"/>
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="12"/>
-        <v>0.44999999999999996</v>
+        <v>0.4300000000000001</v>
       </c>
       <c r="R27">
         <f t="shared" ca="1" si="13"/>
-        <v>0.37</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="S27">
         <f t="shared" ca="1" si="14"/>
-        <v>0.30000000000000004</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="T27">
         <f t="shared" ca="1" si="15"/>
-        <v>0.41000000000000009</v>
+        <v>0.38</v>
       </c>
       <c r="U27">
         <f t="shared" ca="1" si="16"/>
-        <v>0.49</v>
+        <v>0.41000000000000009</v>
       </c>
       <c r="V27">
         <f t="shared" ca="1" si="17"/>
-        <v>0.3299999999999999</v>
+        <v>0.4300000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
@@ -8913,87 +8913,87 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.08</v>
+        <v>0.32</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.09</v>
+        <v>0.49</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.09</v>
+        <v>0.43</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55000000000000004</v>
+        <v>0.21000000000000002</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16999999999999998</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="6"/>
-        <v>0.24999999999999994</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="7"/>
-        <v>0.58000000000000007</v>
+        <v>0.25</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="8"/>
-        <v>0.29000000000000004</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="9"/>
-        <v>0.44000000000000006</v>
+        <v>0.10000000000000003</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.79</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="11"/>
-        <v>0.37</v>
+        <v>0.46999999999999992</v>
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="12"/>
-        <v>0.48999999999999994</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="R28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="S28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.32999999999999996</v>
+        <v>0.26</v>
       </c>
       <c r="T28">
         <f t="shared" ca="1" si="15"/>
-        <v>0.33999999999999997</v>
+        <v>0.4</v>
       </c>
       <c r="U28">
         <f t="shared" ca="1" si="16"/>
-        <v>0.47</v>
+        <v>0.47000000000000003</v>
       </c>
       <c r="V28">
         <f t="shared" ca="1" si="17"/>
-        <v>0.20999999999999996</v>
+        <v>0.32999999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
@@ -9002,87 +9002,87 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42</v>
+        <v>0.19</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48</v>
+        <v>0.12</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31</v>
+        <v>0.18</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22000000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14000000000000001</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="6"/>
-        <v>0.21000000000000002</v>
+        <v>0.15999999999999998</v>
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="7"/>
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="8"/>
-        <v>0.47000000000000003</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="9"/>
-        <v>0.4</v>
+        <v>0.72</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="10"/>
-        <v>0.48000000000000004</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="P29">
         <f t="shared" ca="1" si="11"/>
-        <v>0.36000000000000004</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="12"/>
-        <v>0.38</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="R29">
         <f t="shared" ca="1" si="13"/>
-        <v>0.45999999999999991</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="S29">
         <f t="shared" ca="1" si="14"/>
-        <v>0.22999999999999993</v>
+        <v>0.40000000000000008</v>
       </c>
       <c r="T29">
         <f t="shared" ca="1" si="15"/>
-        <v>0.22999999999999993</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="U29">
         <f t="shared" ca="1" si="16"/>
-        <v>0.5</v>
+        <v>0.24</v>
       </c>
       <c r="V29">
         <f t="shared" ca="1" si="17"/>
-        <v>0.32</v>
+        <v>0.41000000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
@@ -9091,63 +9091,63 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32</v>
+        <v>0.43</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.04</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44</v>
+        <v>0.17</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32</v>
+        <v>0.49</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.42</v>
+        <v>0.25000000000000006</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="5"/>
-        <v>0.72</v>
+        <v>0.62</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="6"/>
-        <v>0.12999999999999995</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="7"/>
-        <v>0.43</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="8"/>
-        <v>0.2</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="9"/>
-        <v>0.77</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="10"/>
-        <v>0.74</v>
+        <v>0.5</v>
       </c>
       <c r="P30">
         <f t="shared" ca="1" si="11"/>
-        <v>0.25999999999999995</v>
+        <v>0.32</v>
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="12"/>
@@ -9155,23 +9155,23 @@
       </c>
       <c r="R30">
         <f t="shared" ca="1" si="13"/>
-        <v>0.4300000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="S30">
         <f t="shared" ca="1" si="14"/>
-        <v>0.24999999999999994</v>
+        <v>0.37</v>
       </c>
       <c r="T30">
         <f t="shared" ca="1" si="15"/>
-        <v>0.46999999999999992</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="U30">
         <f t="shared" ca="1" si="16"/>
-        <v>0.22999999999999998</v>
+        <v>0.38</v>
       </c>
       <c r="V30">
         <f t="shared" ca="1" si="17"/>
-        <v>0.20999999999999996</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
@@ -9180,87 +9180,87 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36</v>
+        <v>0.46</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="3"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="3"/>
         <v>0.16</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.49</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.08</v>
-      </c>
-      <c r="G31">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.34</v>
-      </c>
-      <c r="H31">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33999999999999997</v>
+        <v>0.3</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27</v>
+        <v>0.47000000000000003</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="6"/>
-        <v>0.59</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="7"/>
-        <v>4.0000000000000036E-2</v>
+        <v>0.65999999999999992</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="8"/>
-        <v>0.52</v>
+        <v>0.25</v>
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="9"/>
-        <v>0.15999999999999998</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="10"/>
-        <v>0.42000000000000004</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="P31">
         <f t="shared" ca="1" si="11"/>
-        <v>0.30000000000000004</v>
+        <v>0.24000000000000005</v>
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="12"/>
-        <v>0.45999999999999996</v>
+        <v>0.22999999999999993</v>
       </c>
       <c r="R31">
         <f t="shared" ca="1" si="13"/>
-        <v>0.25</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="S31">
         <f t="shared" ca="1" si="14"/>
-        <v>0.47</v>
+        <v>0.27</v>
       </c>
       <c r="T31">
         <f t="shared" ca="1" si="15"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="U31">
         <f t="shared" ca="1" si="16"/>
-        <v>0.49999999999999994</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="V31">
         <f t="shared" ca="1" si="17"/>
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
@@ -9269,87 +9269,87 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43</v>
+        <v>0.16</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45</v>
+        <v>0.13</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="4"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.63</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49000000000000005</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="6"/>
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="7"/>
-        <v>0.52999999999999992</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="8"/>
-        <v>0.39</v>
+        <v>0.69</v>
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="9"/>
-        <v>0.47000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="10"/>
-        <v>8.0000000000000016E-2</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="P32">
         <f t="shared" ca="1" si="11"/>
-        <v>0.49000000000000005</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="12"/>
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
       <c r="R32">
         <f t="shared" ca="1" si="13"/>
-        <v>0.38999999999999996</v>
+        <v>0.38</v>
       </c>
       <c r="S32">
         <f t="shared" ca="1" si="14"/>
-        <v>0.30000000000000004</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="T32">
         <f t="shared" ca="1" si="15"/>
-        <v>0.5</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="U32">
         <f t="shared" ca="1" si="16"/>
-        <v>0.21999999999999992</v>
+        <v>0.36</v>
       </c>
       <c r="V32">
         <f t="shared" ca="1" si="17"/>
-        <v>0.47000000000000003</v>
+        <v>0.43000000000000005</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">

--- a/code/testData.xlsx
+++ b/code/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="724" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="724" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="测试员打分情况" sheetId="1" r:id="rId1"/>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C2">
         <f t="shared" ref="C2:R13" ca="1" si="0">RANDBETWEEN(-1,1)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
@@ -3482,11 +3482,11 @@
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
@@ -3514,19 +3514,19 @@
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <f t="shared" ca="1" si="0"/>
@@ -3538,11 +3538,11 @@
       </c>
       <c r="S2">
         <f t="shared" ref="R2:AE13" ca="1" si="1">RANDBETWEEN(-1,1)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T2">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <f t="shared" ca="1" si="1"/>
@@ -3550,23 +3550,23 @@
       </c>
       <c r="V2">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <f t="shared" ca="1" si="1"/>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="AB2">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC2">
         <f t="shared" ca="1" si="1"/>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="AD2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE2">
         <f t="shared" ca="1" si="1"/>
@@ -3599,15 +3599,15 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <f t="shared" ca="1" si="0"/>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="Q3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <f t="shared" ca="1" si="1"/>
@@ -3663,11 +3663,11 @@
       </c>
       <c r="S3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <f t="shared" ca="1" si="1"/>
@@ -3675,11 +3675,11 @@
       </c>
       <c r="V3">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <f t="shared" ca="1" si="1"/>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="Y3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3">
         <f t="shared" ca="1" si="1"/>
@@ -3699,15 +3699,15 @@
       </c>
       <c r="AB3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD3">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <f t="shared" ca="1" si="1"/>
@@ -3724,11 +3724,11 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
@@ -3740,11 +3740,11 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
@@ -3764,7 +3764,7 @@
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="0"/>
@@ -3780,35 +3780,35 @@
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <f t="shared" ca="1" si="1"/>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="Z4">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <f t="shared" ca="1" si="1"/>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="AB4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
         <f t="shared" ca="1" si="1"/>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="AD4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE4">
         <f t="shared" ca="1" si="1"/>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
@@ -3853,15 +3853,15 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
@@ -3869,15 +3869,15 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
@@ -3897,15 +3897,15 @@
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="1"/>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="1"/>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="U5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V5">
         <f t="shared" ca="1" si="1"/>
@@ -3929,11 +3929,11 @@
       </c>
       <c r="W5">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <f t="shared" ca="1" si="1"/>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="Z5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <f t="shared" ca="1" si="1"/>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <f t="shared" ca="1" si="1"/>
@@ -3957,11 +3957,11 @@
       </c>
       <c r="AD5">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
@@ -3970,11 +3970,11 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
@@ -3994,23 +3994,23 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
@@ -4018,23 +4018,23 @@
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="1"/>
@@ -4042,23 +4042,23 @@
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <f t="shared" ca="1" si="1"/>
@@ -4066,11 +4066,11 @@
       </c>
       <c r="Z6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="1"/>
@@ -4078,11 +4078,11 @@
       </c>
       <c r="AC6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE6">
         <f t="shared" ca="1" si="1"/>
@@ -4103,19 +4103,19 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
@@ -4123,7 +4123,7 @@
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
@@ -4139,11 +4139,11 @@
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="0"/>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="1"/>
@@ -4171,31 +4171,31 @@
       </c>
       <c r="U7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="1"/>
@@ -4203,15 +4203,15 @@
       </c>
       <c r="AC7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
@@ -4236,23 +4236,23 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
@@ -4260,19 +4260,19 @@
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="0"/>
@@ -4284,15 +4284,15 @@
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <f t="shared" ca="1" si="1"/>
@@ -4300,23 +4300,23 @@
       </c>
       <c r="V8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
         <f t="shared" ca="1" si="1"/>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <f t="shared" ca="1" si="1"/>
@@ -4332,7 +4332,7 @@
       </c>
       <c r="AD8">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE8">
         <f t="shared" ca="1" si="1"/>
@@ -4349,11 +4349,11 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
@@ -4361,11 +4361,11 @@
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
@@ -4373,35 +4373,35 @@
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="0"/>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="1"/>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="U9">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="1"/>
@@ -4429,11 +4429,11 @@
       </c>
       <c r="W9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <f t="shared" ca="1" si="1"/>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
         <f t="shared" ca="1" si="1"/>
@@ -4457,11 +4457,11 @@
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE9">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
@@ -4470,11 +4470,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
@@ -4482,11 +4482,11 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
@@ -4502,11 +4502,11 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
@@ -4514,11 +4514,11 @@
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="0"/>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="0"/>
@@ -4534,15 +4534,15 @@
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T10">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U10">
         <f t="shared" ca="1" si="1"/>
@@ -4550,23 +4550,23 @@
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
         <f t="shared" ca="1" si="1"/>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC10">
         <f t="shared" ca="1" si="1"/>
@@ -4582,11 +4582,11 @@
       </c>
       <c r="AD10">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE10">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
@@ -4595,11 +4595,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
@@ -4623,11 +4623,11 @@
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
@@ -4635,15 +4635,15 @@
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="0"/>
@@ -4651,19 +4651,19 @@
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T11">
         <f t="shared" ca="1" si="1"/>
@@ -4671,19 +4671,19 @@
       </c>
       <c r="U11">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W11">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X11">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
         <f t="shared" ca="1" si="1"/>
@@ -4691,27 +4691,27 @@
       </c>
       <c r="Z11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE11">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
@@ -4724,15 +4724,15 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
@@ -4740,27 +4740,27 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
@@ -4776,23 +4776,23 @@
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U12">
         <f t="shared" ca="1" si="1"/>
@@ -4804,11 +4804,11 @@
       </c>
       <c r="W12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12">
         <f t="shared" ca="1" si="1"/>
@@ -4816,19 +4816,19 @@
       </c>
       <c r="Z12">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD12">
         <f t="shared" ca="1" si="1"/>
@@ -4849,19 +4849,19 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
@@ -4881,11 +4881,11 @@
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="0"/>
@@ -4893,15 +4893,15 @@
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="0"/>
@@ -4913,19 +4913,19 @@
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T13">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U13">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13">
         <f t="shared" ca="1" si="1"/>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="X13">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y13">
         <f t="shared" ca="1" si="1"/>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="Z13">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13">
         <f t="shared" ca="1" si="1"/>
@@ -4949,19 +4949,19 @@
       </c>
       <c r="AB13">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD13">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE13">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15"/>
@@ -4976,7 +4976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5574,7 +5574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -5639,55 +5639,55 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(10,200)/10</f>
-        <v>18.5</v>
+        <v>17.2</v>
       </c>
       <c r="D2">
         <f ca="1">C2+RANDBETWEEN(10,100)/10</f>
-        <v>24.6</v>
+        <v>23.9</v>
       </c>
       <c r="E2">
         <f ca="1">D2+RANDBETWEEN(10,100)/10</f>
-        <v>29.1</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="F2">
         <f ca="1">E2+RANDBETWEEN(10,100)/10</f>
-        <v>30.200000000000003</v>
+        <v>42.099999999999994</v>
       </c>
       <c r="G2">
         <f ca="1">F2+RANDBETWEEN(-10,100)/10</f>
-        <v>35.300000000000004</v>
+        <v>51.199999999999996</v>
       </c>
       <c r="H2">
         <f ca="1">G2+RANDBETWEEN(-10,100)/10</f>
-        <v>37.700000000000003</v>
+        <v>59.599999999999994</v>
       </c>
       <c r="I2">
         <f ca="1">H2+RANDBETWEEN(-10,100)/10</f>
-        <v>38.6</v>
+        <v>60.899999999999991</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2:K11" ca="1" si="0">I2-RANDBETWEEN(10,50)/10</f>
-        <v>37.300000000000004</v>
+        <v>59.79999999999999</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>32.900000000000006</v>
+        <v>57.999999999999993</v>
       </c>
       <c r="L2">
         <f ca="1">K2/2+RANDBETWEEN(-50,100)/10</f>
-        <v>14.550000000000002</v>
+        <v>38</v>
       </c>
       <c r="M2">
         <f ca="1">L2/2+RANDBETWEEN(-50,100)/10</f>
-        <v>14.775000000000002</v>
+        <v>19</v>
       </c>
       <c r="N2">
         <f ca="1">M2/2+RANDBETWEEN(-50,100)/10</f>
-        <v>4.9875000000000007</v>
+        <v>6.6</v>
       </c>
       <c r="O2">
         <f ca="1">N2/2</f>
-        <v>2.4937500000000004</v>
+        <v>3.3</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -5702,55 +5702,55 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C16" ca="1" si="1">RANDBETWEEN(10,200)/10</f>
-        <v>2.2999999999999998</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:F16" ca="1" si="2">C3+RANDBETWEEN(10,100)/10</f>
-        <v>3.3</v>
+        <v>6.1999999999999993</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6999999999999993</v>
+        <v>9.3999999999999986</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="2"/>
-        <v>10.6</v>
+        <v>11.299999999999999</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:I16" ca="1" si="3">F3+RANDBETWEEN(-10,100)/10</f>
-        <v>19.399999999999999</v>
+        <v>10.799999999999999</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="3"/>
-        <v>22.4</v>
+        <v>13.899999999999999</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="3"/>
-        <v>31.2</v>
+        <v>18.099999999999998</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>26.4</v>
+        <v>15.699999999999998</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3" ca="1" si="4">J3-RANDBETWEEN(10,50)/10</f>
-        <v>23.7</v>
+        <v>14.099999999999998</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:N3" ca="1" si="5">K3/2+RANDBETWEEN(-50,100)/10</f>
-        <v>11.45</v>
+        <v>15.35</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="5"/>
-        <v>6.5249999999999995</v>
+        <v>7.4749999999999996</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="5"/>
-        <v>8.0625</v>
+        <v>-0.86249999999999982</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O16" ca="1" si="6">N3/2</f>
-        <v>4.03125</v>
+        <v>-0.43124999999999991</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -5765,55 +5765,55 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="2"/>
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="2"/>
-        <v>30.4</v>
+        <v>27.400000000000002</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="3"/>
-        <v>34.9</v>
+        <v>28.900000000000002</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="3"/>
-        <v>43.8</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="3"/>
-        <v>48.099999999999994</v>
+        <v>36.5</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>43.499999999999993</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4" ca="1" si="7">J4-RANDBETWEEN(10,50)/10</f>
-        <v>38.899999999999991</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:N4" ca="1" si="8">K4/2+RANDBETWEEN(-50,100)/10</f>
-        <v>23.549999999999997</v>
+        <v>15.749999999999998</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="8"/>
-        <v>13.074999999999999</v>
+        <v>10.975</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="8"/>
-        <v>11.337499999999999</v>
+        <v>6.6875</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="6"/>
-        <v>5.6687499999999993</v>
+        <v>3.34375</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -5828,55 +5828,55 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>1.6</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
-        <v>15.1</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="2"/>
-        <v>18.3</v>
+        <v>13.7</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>20.6</v>
+        <v>14.899999999999999</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="3"/>
-        <v>27.6</v>
+        <v>24.4</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="3"/>
-        <v>32.300000000000004</v>
+        <v>28.9</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="3"/>
-        <v>32.800000000000004</v>
+        <v>27.9</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>27.800000000000004</v>
+        <v>24.7</v>
       </c>
       <c r="K5">
         <f t="shared" ref="K5" ca="1" si="9">J5-RANDBETWEEN(10,50)/10</f>
-        <v>23.000000000000004</v>
+        <v>23.4</v>
       </c>
       <c r="L5">
         <f t="shared" ref="L5:N5" ca="1" si="10">K5/2+RANDBETWEEN(-50,100)/10</f>
-        <v>12.700000000000001</v>
+        <v>14.799999999999999</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="10"/>
-        <v>4.3500000000000005</v>
+        <v>5.2999999999999989</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="10"/>
-        <v>3.1750000000000003</v>
+        <v>2.7499999999999996</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5875000000000001</v>
+        <v>1.3749999999999998</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -5891,55 +5891,55 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>9.4</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>25.2</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="2"/>
-        <v>14.4</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>22.6</v>
+        <v>36.099999999999994</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="3"/>
-        <v>24.6</v>
+        <v>37.399999999999991</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>44.79999999999999</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="3"/>
-        <v>33.700000000000003</v>
+        <v>50.79999999999999</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>30.000000000000004</v>
+        <v>47.599999999999987</v>
       </c>
       <c r="K6">
         <f t="shared" ref="K6" ca="1" si="11">J6-RANDBETWEEN(10,50)/10</f>
-        <v>25.400000000000006</v>
+        <v>43.499999999999986</v>
       </c>
       <c r="L6">
         <f t="shared" ref="L6:N6" ca="1" si="12">K6/2+RANDBETWEEN(-50,100)/10</f>
-        <v>14.800000000000002</v>
+        <v>17.649999999999991</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="12"/>
-        <v>9.8000000000000007</v>
+        <v>12.324999999999996</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="12"/>
-        <v>12.7</v>
+        <v>13.362499999999997</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="6"/>
-        <v>6.35</v>
+        <v>6.6812499999999986</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -5954,55 +5954,55 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>17.3</v>
+        <v>12.8</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>26.1</v>
+        <v>15.200000000000001</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
-        <v>36.1</v>
+        <v>18.900000000000002</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>25.800000000000004</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="3"/>
-        <v>40.299999999999997</v>
+        <v>25.000000000000004</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="3"/>
-        <v>48.599999999999994</v>
+        <v>29.500000000000004</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="3"/>
-        <v>50.399999999999991</v>
+        <v>38.400000000000006</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>48.79999999999999</v>
+        <v>34.600000000000009</v>
       </c>
       <c r="K7">
         <f t="shared" ref="K7" ca="1" si="13">J7-RANDBETWEEN(10,50)/10</f>
-        <v>45.999999999999993</v>
+        <v>30.20000000000001</v>
       </c>
       <c r="L7">
         <f t="shared" ref="L7:N7" ca="1" si="14">K7/2+RANDBETWEEN(-50,100)/10</f>
-        <v>26.899999999999995</v>
+        <v>21.100000000000005</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="14"/>
-        <v>11.149999999999999</v>
+        <v>18.550000000000004</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="14"/>
-        <v>1.8749999999999991</v>
+        <v>13.175000000000002</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="6"/>
-        <v>0.93749999999999956</v>
+        <v>6.5875000000000012</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -6017,55 +6017,55 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>12.1</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>15.6</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
-        <v>18.3</v>
+        <v>29</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>23.4</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="3"/>
-        <v>25.299999999999997</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="3"/>
-        <v>29.999999999999996</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="3"/>
-        <v>35.4</v>
+        <v>36</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" ca="1" si="15">J8-RANDBETWEEN(10,50)/10</f>
-        <v>27.8</v>
+        <v>26.6</v>
       </c>
       <c r="L8">
         <f t="shared" ref="L8:N8" ca="1" si="16">K8/2+RANDBETWEEN(-50,100)/10</f>
-        <v>21.7</v>
+        <v>10.600000000000001</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="16"/>
-        <v>10.549999999999999</v>
+        <v>4.5000000000000009</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="16"/>
-        <v>1.4749999999999996</v>
+        <v>11.45</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.73749999999999982</v>
+        <v>5.7249999999999996</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -6080,55 +6080,55 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0999999999999996</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>18.100000000000001</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>25.3</v>
+        <v>26.599999999999998</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="3"/>
-        <v>25.2</v>
+        <v>26.799999999999997</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="3"/>
-        <v>34.6</v>
+        <v>33.9</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="3"/>
-        <v>40.800000000000004</v>
+        <v>36.4</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>39.800000000000004</v>
+        <v>32.699999999999996</v>
       </c>
       <c r="K9">
         <f t="shared" ref="K9" ca="1" si="17">J9-RANDBETWEEN(10,50)/10</f>
-        <v>38.200000000000003</v>
+        <v>31.199999999999996</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9:N9" ca="1" si="18">K9/2+RANDBETWEEN(-50,100)/10</f>
-        <v>18.400000000000002</v>
+        <v>15.499999999999998</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="18"/>
-        <v>4.9000000000000012</v>
+        <v>12.049999999999999</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="18"/>
-        <v>11.950000000000001</v>
+        <v>15.224999999999998</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="6"/>
-        <v>5.9750000000000005</v>
+        <v>7.6124999999999989</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -6143,55 +6143,55 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>14.4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>22.9</v>
+        <v>15.399999999999999</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
-        <v>32.099999999999994</v>
+        <v>21.099999999999998</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>39.899999999999991</v>
+        <v>23.099999999999998</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>45.599999999999994</v>
+        <v>24.9</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="3"/>
-        <v>53.8</v>
+        <v>29</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="3"/>
-        <v>54.3</v>
+        <v>30.8</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>52.699999999999996</v>
+        <v>29.3</v>
       </c>
       <c r="K10">
         <f t="shared" ref="K10" ca="1" si="19">J10-RANDBETWEEN(10,50)/10</f>
-        <v>48.9</v>
+        <v>27</v>
       </c>
       <c r="L10">
         <f t="shared" ref="L10:N10" ca="1" si="20">K10/2+RANDBETWEEN(-50,100)/10</f>
-        <v>22.25</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="20"/>
-        <v>7.8250000000000002</v>
+        <v>16.149999999999999</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="20"/>
-        <v>1.2124999999999999</v>
+        <v>6.1749999999999989</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="6"/>
-        <v>0.60624999999999996</v>
+        <v>3.0874999999999995</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -6206,55 +6206,55 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>18.7</v>
+        <v>9.4</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>29.6</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="3"/>
-        <v>39.799999999999997</v>
+        <v>49.4</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="3"/>
-        <v>42.9</v>
+        <v>49.3</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>40.9</v>
+        <v>45.9</v>
       </c>
       <c r="K11">
         <f t="shared" ref="K11" ca="1" si="21">J11-RANDBETWEEN(10,50)/10</f>
-        <v>39.699999999999996</v>
+        <v>41.8</v>
       </c>
       <c r="L11">
         <f t="shared" ref="L11:N11" ca="1" si="22">K11/2+RANDBETWEEN(-50,100)/10</f>
-        <v>22.65</v>
+        <v>20.599999999999998</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="22"/>
-        <v>17.625</v>
+        <v>7.0999999999999988</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="22"/>
-        <v>14.512499999999999</v>
+        <v>6.6499999999999995</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="6"/>
-        <v>7.2562499999999996</v>
+        <v>3.3249999999999997</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -6269,55 +6269,55 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>15.3</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>25.1</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>27.4</v>
+        <v>35</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>28.2</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="3"/>
-        <v>32.6</v>
+        <v>37</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="3"/>
-        <v>40.4</v>
+        <v>43.1</v>
       </c>
       <c r="J12">
         <f ca="1">I12-RANDBETWEEN(10,50)/10</f>
-        <v>38.5</v>
+        <v>40.800000000000004</v>
       </c>
       <c r="K12">
         <f t="shared" ref="K12" ca="1" si="23">J12-RANDBETWEEN(10,50)/10</f>
-        <v>33.799999999999997</v>
+        <v>38.300000000000004</v>
       </c>
       <c r="L12">
         <f t="shared" ref="L12:N12" ca="1" si="24">K12/2+RANDBETWEEN(-50,100)/10</f>
-        <v>18.299999999999997</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="24"/>
-        <v>6.2499999999999982</v>
+        <v>12.775</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="24"/>
-        <v>9.7249999999999979</v>
+        <v>16.287500000000001</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="6"/>
-        <v>4.8624999999999989</v>
+        <v>8.1437500000000007</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -6332,55 +6332,55 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>19.899999999999999</v>
+        <v>15.6</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>20.9</v>
+        <v>21.4</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>24.5</v>
+        <v>23</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="3"/>
-        <v>33.9</v>
+        <v>35.199999999999996</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="3"/>
-        <v>42.8</v>
+        <v>45</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="3"/>
-        <v>47.5</v>
+        <v>48.7</v>
       </c>
       <c r="J13">
         <f t="shared" ref="J13:K16" ca="1" si="25">I13-RANDBETWEEN(10,50)/10</f>
-        <v>45.7</v>
+        <v>45.5</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="25"/>
-        <v>42.5</v>
+        <v>42.3</v>
       </c>
       <c r="L13">
         <f t="shared" ref="L13:N13" ca="1" si="26">K13/2+RANDBETWEEN(-50,100)/10</f>
-        <v>27.65</v>
+        <v>24.049999999999997</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="26"/>
-        <v>23.625</v>
+        <v>7.4249999999999989</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="26"/>
-        <v>18.412500000000001</v>
+        <v>8.0124999999999993</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="6"/>
-        <v>9.2062500000000007</v>
+        <v>4.0062499999999996</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -6395,55 +6395,55 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>16.399999999999999</v>
+        <v>18.8</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>19.399999999999999</v>
+        <v>23.9</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="2"/>
-        <v>21.799999999999997</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>23.9</v>
+        <v>36.6</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="3"/>
-        <v>33.799999999999997</v>
+        <v>45.6</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="3"/>
-        <v>35.299999999999997</v>
+        <v>51.4</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="3"/>
-        <v>36.099999999999994</v>
+        <v>54.1</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="25"/>
-        <v>33.499999999999993</v>
+        <v>52.5</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="25"/>
-        <v>30.699999999999992</v>
+        <v>51.3</v>
       </c>
       <c r="L14">
         <f t="shared" ref="L14:N14" ca="1" si="27">K14/2+RANDBETWEEN(-50,100)/10</f>
-        <v>18.949999999999996</v>
+        <v>24.349999999999998</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="27"/>
-        <v>14.274999999999999</v>
+        <v>19.375</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="27"/>
-        <v>5.5374999999999996</v>
+        <v>8.1875</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="6"/>
-        <v>2.7687499999999998</v>
+        <v>4.09375</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -6458,55 +6458,55 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>17.600000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>22.8</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>26.8</v>
+        <v>11.9</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>30.400000000000002</v>
+        <v>18</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="3"/>
-        <v>29.500000000000004</v>
+        <v>19.7</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="3"/>
-        <v>35.800000000000004</v>
+        <v>26</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="3"/>
-        <v>40.400000000000006</v>
+        <v>34</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="25"/>
-        <v>37.600000000000009</v>
+        <v>29.6</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="25"/>
-        <v>36.400000000000006</v>
+        <v>25.700000000000003</v>
       </c>
       <c r="L15">
         <f t="shared" ref="L15:N15" ca="1" si="28">K15/2+RANDBETWEEN(-50,100)/10</f>
-        <v>14.000000000000004</v>
+        <v>21.05</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="28"/>
-        <v>3.9000000000000017</v>
+        <v>18.425000000000001</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="28"/>
-        <v>-1.849999999999999</v>
+        <v>6.9125000000000005</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.92499999999999949</v>
+        <v>3.4562500000000003</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -6521,55 +6521,55 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4</v>
+        <v>12.7</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>8.8000000000000007</v>
+        <v>14.299999999999999</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>11.4</v>
+        <v>24.299999999999997</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>18.7</v>
+        <v>28.099999999999998</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="3"/>
-        <v>18.899999999999999</v>
+        <v>28.7</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="3"/>
-        <v>20.5</v>
+        <v>31.3</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="3"/>
-        <v>23.5</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="25"/>
-        <v>20.3</v>
+        <v>29.500000000000004</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="25"/>
-        <v>15.700000000000001</v>
+        <v>25.900000000000002</v>
       </c>
       <c r="L16">
         <f t="shared" ref="L16:N16" ca="1" si="29">K16/2+RANDBETWEEN(-50,100)/10</f>
-        <v>13.350000000000001</v>
+        <v>10.55</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="29"/>
-        <v>6.1750000000000007</v>
+        <v>1.1750000000000007</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="29"/>
-        <v>2.2875000000000005</v>
+        <v>3.5875000000000004</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="6"/>
-        <v>1.1437500000000003</v>
+        <v>1.7937500000000002</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -6688,59 +6688,59 @@
       </c>
       <c r="B3">
         <f ca="1">RANDBETWEEN(0,50)/100</f>
-        <v>0.12</v>
+        <v>0.35</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:H18" ca="1" si="0">RANDBETWEEN(0,50)/100</f>
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.17</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
         <v>0.38</v>
       </c>
-      <c r="F3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.17</v>
-      </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I3">
         <f ca="1">RANDBETWEEN(50,80)/100-B3</f>
-        <v>0.45999999999999996</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:O3" ca="1" si="1">RANDBETWEEN(50,80)/100-C3</f>
-        <v>0.22000000000000003</v>
+        <v>0.49</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69</v>
+        <v>0.39</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18999999999999995</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33999999999999997</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30000000000000004</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>0.48000000000000004</v>
       </c>
       <c r="P3">
         <f ca="1">1-B3-I3</f>
@@ -6748,27 +6748,27 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:V3" ca="1" si="2">1-C3-J3</f>
-        <v>0.47999999999999993</v>
+        <v>0.35</v>
       </c>
       <c r="R3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28000000000000003</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="S3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43000000000000005</v>
+        <v>0.35</v>
       </c>
       <c r="T3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="U3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44999999999999996</v>
+        <v>0.27</v>
       </c>
       <c r="V3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41000000000000003</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
@@ -6777,87 +6777,87 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:H32" ca="1" si="3">RANDBETWEEN(0,50)/100</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.06</v>
+        <v>0.39</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46</v>
+        <v>0.32</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37</v>
+        <v>0.02</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38</v>
+        <v>0.22</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48</v>
+        <v>0.08</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I32" ca="1" si="4">RANDBETWEEN(50,80)/100-B4</f>
-        <v>0.6100000000000001</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J32" ca="1" si="5">RANDBETWEEN(50,80)/100-C4</f>
-        <v>0.56000000000000005</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K32" ca="1" si="6">RANDBETWEEN(50,80)/100-D4</f>
-        <v>0.22999999999999993</v>
+        <v>0.22000000000000003</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L32" ca="1" si="7">RANDBETWEEN(50,80)/100-E4</f>
-        <v>0.22999999999999998</v>
+        <v>0.62</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M32" ca="1" si="8">RANDBETWEEN(50,80)/100-F4</f>
-        <v>0.39</v>
+        <v>0.49</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N32" ca="1" si="9">RANDBETWEEN(50,80)/100-G4</f>
-        <v>0.4</v>
+        <v>0.62</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4:O32" ca="1" si="10">RANDBETWEEN(50,80)/100-H4</f>
-        <v>4.0000000000000036E-2</v>
+        <v>0.53</v>
       </c>
       <c r="P4">
         <f t="shared" ref="P4:P32" ca="1" si="11">1-B4-I4</f>
-        <v>0.31999999999999984</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q32" ca="1" si="12">1-C4-J4</f>
-        <v>0.37999999999999989</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="R4">
         <f t="shared" ref="R4:R32" ca="1" si="13">1-D4-K4</f>
-        <v>0.31000000000000011</v>
+        <v>0.45999999999999991</v>
       </c>
       <c r="S4">
         <f t="shared" ref="S4:S32" ca="1" si="14">1-E4-L4</f>
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="T4">
         <f t="shared" ref="T4:T32" ca="1" si="15">1-F4-M4</f>
-        <v>0.22999999999999998</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="U4">
         <f t="shared" ref="U4:U32" ca="1" si="16">1-G4-N4</f>
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="V4">
         <f t="shared" ref="V4:V32" ca="1" si="17">1-H4-O4</f>
-        <v>0.48</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
@@ -6866,87 +6866,87 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12</v>
+        <v>0.27</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.06</v>
+        <v>0.22</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.41</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.44</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39</v>
+        <v>0.02</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.42000000000000004</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29999999999999993</v>
+        <v>0.48000000000000004</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="6"/>
-        <v>0.47000000000000003</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="7"/>
-        <v>0.67</v>
+        <v>0.2</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="8"/>
-        <v>0.29000000000000004</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="9"/>
-        <v>0.48</v>
+        <v>0.31</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="10"/>
-        <v>0.21999999999999997</v>
+        <v>0.69</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="11"/>
-        <v>0.45999999999999996</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="12"/>
-        <v>0.42000000000000004</v>
+        <v>0.21999999999999992</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="13"/>
-        <v>0.46999999999999992</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="14"/>
-        <v>0.20999999999999996</v>
+        <v>0.39000000000000007</v>
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="15"/>
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="U5">
         <f t="shared" ca="1" si="16"/>
-        <v>0.41000000000000003</v>
+        <v>0.25000000000000006</v>
       </c>
       <c r="V5">
         <f t="shared" ca="1" si="17"/>
-        <v>0.39</v>
+        <v>0.29000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
@@ -6955,87 +6955,87 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.31</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.45</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.39</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="4"/>
-        <v>0.48</v>
+        <v>0.23000000000000004</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58000000000000007</v>
+        <v>0.69000000000000006</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="6"/>
-        <v>0.42999999999999994</v>
+        <v>0.38999999999999996</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="7"/>
-        <v>0.54</v>
+        <v>0.11999999999999994</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="8"/>
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="10"/>
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="11"/>
-        <v>0.28000000000000003</v>
+        <v>0.45999999999999991</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="12"/>
-        <v>0.33999999999999997</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.29000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="14"/>
-        <v>0.44999999999999996</v>
+        <v>0.4300000000000001</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="15"/>
-        <v>0.46</v>
+        <v>0.37999999999999995</v>
       </c>
       <c r="U6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="17"/>
-        <v>0.49999999999999994</v>
+        <v>0.33999999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
@@ -7044,87 +7044,87 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
         <v>0.34</v>
       </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
-      </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.49</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.04</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="4"/>
-        <v>0.69</v>
+        <v>0.68</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="6"/>
-        <v>0.64999999999999991</v>
+        <v>0.32</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="7"/>
-        <v>0.48</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="9"/>
-        <v>0.31</v>
+        <v>0.7</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="10"/>
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="11"/>
-        <v>0.30000000000000004</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="12"/>
-        <v>0.34999999999999992</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="13"/>
-        <v>0.30000000000000004</v>
+        <v>0.33999999999999991</v>
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="14"/>
-        <v>0.41000000000000003</v>
+        <v>0.48</v>
       </c>
       <c r="T7">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43999999999999995</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="U7">
         <f t="shared" ca="1" si="16"/>
-        <v>0.25000000000000006</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="17"/>
-        <v>0.29000000000000004</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
@@ -7133,87 +7133,87 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47</v>
+        <v>0.01</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51</v>
+        <v>0.38</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.53</v>
+        <v>0.74</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.7</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.37999999999999995</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="8"/>
-        <v>0.46</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.29000000000000004</v>
+        <v>0.78</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="10"/>
-        <v>0.46</v>
+        <v>0.69</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="11"/>
-        <v>0.28000000000000003</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.29000000000000004</v>
+        <v>0.26</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="13"/>
-        <v>0.26</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="S8">
         <f t="shared" ca="1" si="14"/>
-        <v>0.28999999999999998</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="T8">
         <f t="shared" ca="1" si="15"/>
-        <v>0.22999999999999993</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="U8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.24</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="V8">
         <f t="shared" ca="1" si="17"/>
-        <v>0.1999999999999999</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
@@ -7222,87 +7222,87 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37</v>
+        <v>0.03</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43</v>
+        <v>0.1</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49</v>
+        <v>0.34</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.04</v>
+        <v>0.35</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33999999999999997</v>
+        <v>0.52</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="6"/>
-        <v>0.31</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="7"/>
-        <v>0.31000000000000005</v>
+        <v>0.36</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.24</v>
+        <v>0.16999999999999998</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="9"/>
-        <v>0.55999999999999994</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="11"/>
-        <v>0.29000000000000004</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.39000000000000007</v>
+        <v>0.35</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="13"/>
-        <v>0.26000000000000006</v>
+        <v>0.43</v>
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="14"/>
-        <v>0.31999999999999995</v>
+        <v>0.36</v>
       </c>
       <c r="T9">
         <f t="shared" ca="1" si="15"/>
-        <v>0.27</v>
+        <v>0.48999999999999994</v>
       </c>
       <c r="U9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.4</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="17"/>
-        <v>0.43000000000000005</v>
+        <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
@@ -7311,87 +7311,87 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.32</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.43</v>
-      </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33999999999999997</v>
+        <v>0.32</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="5"/>
-        <v>0.77</v>
+        <v>0.49</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="6"/>
-        <v>0.28999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="7"/>
-        <v>0.22000000000000003</v>
+        <v>0.75</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="8"/>
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="9"/>
-        <v>0.70000000000000007</v>
+        <v>0.48</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.38</v>
+        <v>0.54</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.41000000000000003</v>
+        <v>0.27000000000000007</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="12"/>
-        <v>0.21999999999999997</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.38999999999999996</v>
+        <v>0.26</v>
       </c>
       <c r="S10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.35000000000000003</v>
+        <v>0.24</v>
       </c>
       <c r="T10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.20999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="U10">
         <f t="shared" ca="1" si="16"/>
-        <v>0.19999999999999996</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="17"/>
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
@@ -7400,87 +7400,87 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
         <v>0.35</v>
       </c>
-      <c r="E11">
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33</v>
+      </c>
+      <c r="H11">
         <f t="shared" ca="1" si="0"/>
         <v>0.41</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.16</v>
-      </c>
-      <c r="H11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.23</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35000000000000003</v>
+        <v>0.65999999999999992</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="6"/>
-        <v>0.25</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="7"/>
-        <v>0.31</v>
+        <v>0.17000000000000004</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="8"/>
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="9"/>
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="10"/>
-        <v>0.27</v>
+        <v>0.22000000000000003</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="11"/>
-        <v>0.39</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="12"/>
-        <v>0.3299999999999999</v>
+        <v>0.31000000000000005</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="13"/>
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="S11">
         <f t="shared" ca="1" si="14"/>
-        <v>0.28000000000000008</v>
+        <v>0.48</v>
       </c>
       <c r="T11">
         <f t="shared" ca="1" si="15"/>
-        <v>0.44999999999999996</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="U11">
         <f t="shared" ca="1" si="16"/>
-        <v>0.48</v>
+        <v>0.34999999999999992</v>
       </c>
       <c r="V11">
         <f t="shared" ca="1" si="17"/>
-        <v>0.5</v>
+        <v>0.37000000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
@@ -7489,87 +7489,87 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
         <v>0.34</v>
       </c>
-      <c r="F12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.44</v>
-      </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64</v>
+        <v>0.48</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="5"/>
-        <v>0.10000000000000003</v>
+        <v>0.31</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="6"/>
-        <v>0.51</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="7"/>
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="8"/>
-        <v>0.16999999999999998</v>
+        <v>0.21000000000000002</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="9"/>
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="10"/>
-        <v>0.38000000000000006</v>
+        <v>0.52</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="11"/>
-        <v>0.26</v>
+        <v>0.36</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="12"/>
-        <v>0.45</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="13"/>
-        <v>0.24</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="14"/>
-        <v>0.23999999999999994</v>
+        <v>0.38</v>
       </c>
       <c r="T12">
         <f t="shared" ca="1" si="15"/>
-        <v>0.39000000000000007</v>
+        <v>0.4499999999999999</v>
       </c>
       <c r="U12">
         <f t="shared" ca="1" si="16"/>
-        <v>0.36</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="17"/>
-        <v>0.44</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
@@ -7578,87 +7578,87 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3</v>
+        <v>0.13</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36</v>
+        <v>0.03</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49</v>
+        <v>0.16</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36</v>
+        <v>0.15</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26999999999999996</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="5"/>
-        <v>0.41000000000000003</v>
+        <v>0.6</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="6"/>
-        <v>0.24</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="7"/>
-        <v>0.20999999999999996</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="8"/>
-        <v>0.23999999999999994</v>
+        <v>0.22000000000000003</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="9"/>
-        <v>0.20000000000000007</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="10"/>
-        <v>0.37999999999999995</v>
+        <v>0.32</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="11"/>
-        <v>0.43</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="12"/>
-        <v>0.22999999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="13"/>
-        <v>0.48</v>
+        <v>0.32999999999999985</v>
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="14"/>
-        <v>0.30000000000000004</v>
+        <v>0.38</v>
       </c>
       <c r="T13">
         <f t="shared" ca="1" si="15"/>
-        <v>0.31000000000000011</v>
+        <v>0.45999999999999991</v>
       </c>
       <c r="U13">
         <f t="shared" ca="1" si="16"/>
-        <v>0.43999999999999995</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.31</v>
+        <v>0.49000000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
@@ -7667,87 +7667,87 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44</v>
+        <v>0.37</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48</v>
+        <v>0.01</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47</v>
+        <v>0.27</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12999999999999995</v>
+        <v>0.26</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58000000000000007</v>
+        <v>0.18999999999999995</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="6"/>
-        <v>0.72</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="7"/>
-        <v>2.0000000000000018E-2</v>
+        <v>0.53</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="8"/>
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="9"/>
-        <v>0.26</v>
+        <v>0.38</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.27999999999999997</v>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="11"/>
-        <v>0.4300000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="12"/>
-        <v>0.22999999999999998</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="13"/>
-        <v>0.28000000000000003</v>
+        <v>0.31000000000000005</v>
       </c>
       <c r="S14">
         <f t="shared" ca="1" si="14"/>
-        <v>0.5</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="T14">
         <f t="shared" ca="1" si="15"/>
-        <v>0.28000000000000003</v>
+        <v>0.47</v>
       </c>
       <c r="U14">
         <f t="shared" ca="1" si="16"/>
-        <v>0.26</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="V14">
         <f t="shared" ca="1" si="17"/>
-        <v>0.3000000000000001</v>
+        <v>0.43999999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
@@ -7760,31 +7760,31 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
+        <v>0.47</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
         <v>0.33</v>
       </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
-      </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15</v>
+        <v>0.42</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="4"/>
-        <v>2.0000000000000018E-2</v>
+        <v>0.10999999999999999</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="5"/>
@@ -7792,51 +7792,51 @@
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="6"/>
-        <v>0.35000000000000003</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="7"/>
-        <v>0.36</v>
+        <v>0.35999999999999993</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="8"/>
-        <v>0.76</v>
+        <v>0.48000000000000004</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="9"/>
-        <v>0.59</v>
+        <v>0.41</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="10"/>
-        <v>0.63</v>
+        <v>0.38000000000000006</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="11"/>
-        <v>0.48</v>
+        <v>0.39</v>
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="12"/>
-        <v>0.45999999999999996</v>
+        <v>0.48</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="13"/>
-        <v>0.3199999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="S15">
         <f t="shared" ca="1" si="14"/>
-        <v>0.5</v>
+        <v>0.31</v>
       </c>
       <c r="T15">
         <f t="shared" ca="1" si="15"/>
-        <v>0.24</v>
+        <v>0.47999999999999993</v>
       </c>
       <c r="U15">
         <f t="shared" ca="1" si="16"/>
-        <v>0.41000000000000003</v>
+        <v>0.24999999999999994</v>
       </c>
       <c r="V15">
         <f t="shared" ca="1" si="17"/>
-        <v>0.21999999999999997</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
@@ -7845,87 +7845,87 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47</v>
+        <v>0.18</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="D16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.24</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.09</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.24</v>
-      </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28000000000000003</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="5"/>
-        <v>0.52</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="6"/>
-        <v>0.41000000000000003</v>
+        <v>0.53</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.49</v>
+        <v>0.22999999999999993</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="8"/>
-        <v>0.56000000000000005</v>
+        <v>0.39</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="9"/>
-        <v>0.26</v>
+        <v>0.47000000000000003</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="10"/>
-        <v>0.35</v>
+        <v>0.47000000000000003</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="11"/>
-        <v>0.25</v>
+        <v>0.46</v>
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="12"/>
-        <v>0.19999999999999996</v>
+        <v>0.49</v>
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="13"/>
-        <v>0.35</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="S16">
         <f t="shared" ca="1" si="14"/>
-        <v>0.42000000000000004</v>
+        <v>0.31000000000000011</v>
       </c>
       <c r="T16">
         <f t="shared" ca="1" si="15"/>
-        <v>0.19999999999999996</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="U16">
         <f t="shared" ca="1" si="16"/>
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="V16">
         <f t="shared" ca="1" si="17"/>
-        <v>0.30000000000000004</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
@@ -7942,79 +7942,79 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>0.18</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21</v>
+        <v>0.33</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15</v>
+        <v>0.38</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31</v>
+        <v>0.21000000000000002</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.45</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="8"/>
-        <v>0.39</v>
+        <v>0.22000000000000003</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.20999999999999996</v>
+        <v>0.67</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="10"/>
-        <v>0.36</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="11"/>
-        <v>0.38999999999999996</v>
+        <v>0.48999999999999994</v>
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="12"/>
-        <v>0.28000000000000003</v>
+        <v>0.48</v>
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="13"/>
-        <v>0.47000000000000003</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="S17">
         <f t="shared" ca="1" si="14"/>
-        <v>0.25999999999999995</v>
+        <v>0.27</v>
       </c>
       <c r="T17">
         <f t="shared" ca="1" si="15"/>
-        <v>0.4</v>
+        <v>0.4499999999999999</v>
       </c>
       <c r="U17">
         <f t="shared" ca="1" si="16"/>
-        <v>0.30000000000000004</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="V17">
         <f t="shared" ca="1" si="17"/>
-        <v>0.49</v>
+        <v>0.33999999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
@@ -8023,87 +8023,87 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="3"/>
+        <v>0.46</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="C18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.42</v>
-      </c>
-      <c r="D18">
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F18">
         <f t="shared" ca="1" si="0"/>
         <v>0.16</v>
       </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.22</v>
-      </c>
-      <c r="F18">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.37</v>
-      </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35000000000000003</v>
+        <v>0.15999999999999998</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="6"/>
-        <v>0.47</v>
+        <v>0.48000000000000004</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="7"/>
-        <v>0.4</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20999999999999996</v>
+        <v>0.36</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="9"/>
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="10"/>
-        <v>0.25999999999999995</v>
+        <v>0.4</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="11"/>
-        <v>0.35999999999999993</v>
+        <v>0.38000000000000006</v>
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="12"/>
-        <v>0.27000000000000007</v>
+        <v>0.33999999999999991</v>
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="13"/>
-        <v>0.37</v>
+        <v>0.22999999999999993</v>
       </c>
       <c r="S18">
         <f t="shared" ca="1" si="14"/>
-        <v>0.38</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="T18">
         <f t="shared" ca="1" si="15"/>
-        <v>0.42000000000000004</v>
+        <v>0.48</v>
       </c>
       <c r="U18">
         <f t="shared" ca="1" si="16"/>
-        <v>0.42000000000000004</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="V18">
         <f t="shared" ca="1" si="17"/>
-        <v>0.29000000000000009</v>
+        <v>0.21999999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
@@ -8112,87 +8112,87 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
+        <v>0.31</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28999999999999998</v>
+        <v>0.26</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.28999999999999998</v>
+        <v>0.24</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="7"/>
-        <v>0.56999999999999995</v>
+        <v>0.63</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="8"/>
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="9"/>
-        <v>0.53999999999999992</v>
+        <v>0.65999999999999992</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="10"/>
-        <v>0.38</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="11"/>
-        <v>0.4</v>
+        <v>0.34999999999999992</v>
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.21999999999999997</v>
+        <v>0.24000000000000005</v>
       </c>
       <c r="S19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.30000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="T19">
         <f t="shared" ca="1" si="15"/>
-        <v>0.25</v>
+        <v>0.49</v>
       </c>
       <c r="U19">
         <f t="shared" ca="1" si="16"/>
-        <v>0.41000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="V19">
         <f t="shared" ca="1" si="17"/>
-        <v>0.47</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
@@ -8201,87 +8201,87 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28999999999999998</v>
+        <v>0.09</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49</v>
+        <v>0.15</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47</v>
+        <v>0.41</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12</v>
+        <v>0.31</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36</v>
+        <v>0.01</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44</v>
+        <v>0.53</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29000000000000004</v>
+        <v>0.74</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="6"/>
-        <v>0.24</v>
+        <v>0.6</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="7"/>
-        <v>9.000000000000008E-2</v>
+        <v>0.38000000000000006</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.44000000000000006</v>
+        <v>0.41</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="9"/>
-        <v>0.41000000000000003</v>
+        <v>0.7</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="10"/>
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.26999999999999996</v>
+        <v>0.38</v>
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="12"/>
-        <v>0.45999999999999996</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="13"/>
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="S20">
         <f t="shared" ca="1" si="14"/>
-        <v>0.43999999999999995</v>
+        <v>0.21000000000000002</v>
       </c>
       <c r="T20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43999999999999995</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="U20">
         <f t="shared" ca="1" si="16"/>
-        <v>0.22999999999999998</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="V20">
         <f t="shared" ca="1" si="17"/>
-        <v>0.33999999999999997</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.15">
@@ -8290,87 +8290,87 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26</v>
+        <v>0.37</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="3"/>
         <v>0.48</v>
       </c>
-      <c r="D21">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.3</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.04</v>
-      </c>
       <c r="F21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26</v>
+        <v>0.38</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16</v>
+        <v>0.43</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19000000000000006</v>
+        <v>0.78</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="6"/>
-        <v>0.37000000000000005</v>
+        <v>0.58000000000000007</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="7"/>
-        <v>0.73</v>
+        <v>0.10999999999999999</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="8"/>
-        <v>0.43999999999999995</v>
+        <v>0.4</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="9"/>
-        <v>0.38000000000000006</v>
+        <v>0.39</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59</v>
+        <v>0.13999999999999996</v>
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="11"/>
-        <v>0.39</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="12"/>
-        <v>0.32999999999999996</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="13"/>
-        <v>0.3299999999999999</v>
+        <v>0.34999999999999987</v>
       </c>
       <c r="S21">
         <f t="shared" ca="1" si="14"/>
-        <v>0.22999999999999998</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="T21">
         <f t="shared" ca="1" si="15"/>
-        <v>0.30000000000000004</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="U21">
         <f t="shared" ca="1" si="16"/>
-        <v>0.3199999999999999</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="V21">
         <f t="shared" ca="1" si="17"/>
-        <v>0.25</v>
+        <v>0.4300000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
@@ -8379,87 +8379,87 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="3"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.23</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.19</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="3"/>
         <v>0.39</v>
-      </c>
-      <c r="E22">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.27</v>
-      </c>
-      <c r="F22">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.37</v>
-      </c>
-      <c r="G22">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.08</v>
-      </c>
-      <c r="H22">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.27</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.44000000000000006</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="7"/>
-        <v>0.33999999999999997</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="8"/>
-        <v>0.30000000000000004</v>
+        <v>0.48000000000000004</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="9"/>
-        <v>0.56000000000000005</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43999999999999995</v>
+        <v>0.35</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="11"/>
-        <v>0.45999999999999996</v>
+        <v>0.47</v>
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="12"/>
-        <v>0.31999999999999995</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="R22">
         <f t="shared" ca="1" si="13"/>
-        <v>0.41000000000000003</v>
+        <v>0.37999999999999995</v>
       </c>
       <c r="S22">
         <f t="shared" ca="1" si="14"/>
-        <v>0.39</v>
+        <v>0.31000000000000005</v>
       </c>
       <c r="T22">
         <f t="shared" ca="1" si="15"/>
-        <v>0.32999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="U22">
         <f t="shared" ca="1" si="16"/>
-        <v>0.36</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="V22">
         <f t="shared" ca="1" si="17"/>
-        <v>0.29000000000000004</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
@@ -8468,87 +8468,87 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.06</v>
+        <v>0.36</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14000000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.05</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51</v>
+        <v>0.38</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29000000000000004</v>
+        <v>0.42999999999999994</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="6"/>
-        <v>0.56000000000000005</v>
+        <v>0.35</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="7"/>
-        <v>0.72</v>
+        <v>0.25</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="8"/>
-        <v>0.42999999999999994</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="9"/>
-        <v>0.62</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="10"/>
-        <v>0.71</v>
+        <v>0.35</v>
       </c>
       <c r="P23">
         <f t="shared" ca="1" si="11"/>
-        <v>0.28000000000000003</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="12"/>
-        <v>0.32999999999999996</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="R23">
         <f t="shared" ca="1" si="13"/>
-        <v>0.31999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="S23">
         <f t="shared" ca="1" si="14"/>
-        <v>0.21999999999999997</v>
+        <v>0.39</v>
       </c>
       <c r="T23">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43000000000000005</v>
+        <v>0.28000000000000008</v>
       </c>
       <c r="U23">
         <f t="shared" ca="1" si="16"/>
-        <v>0.20999999999999996</v>
+        <v>0.31</v>
       </c>
       <c r="V23">
         <f t="shared" ca="1" si="17"/>
-        <v>0.24</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
@@ -8557,87 +8557,87 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28999999999999998</v>
+        <v>0.49</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.02</v>
+        <v>0.32</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.04</v>
+        <v>0.3</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21000000000000002</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="5"/>
-        <v>0.6</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="6"/>
-        <v>0.51</v>
+        <v>0.39</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="7"/>
-        <v>0.7</v>
+        <v>0.49000000000000005</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="8"/>
-        <v>0.41000000000000003</v>
+        <v>0.67</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="9"/>
-        <v>0.55000000000000004</v>
+        <v>0.51</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="10"/>
-        <v>0.28000000000000003</v>
+        <v>0.23000000000000004</v>
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="11"/>
-        <v>0.49999999999999994</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="12"/>
-        <v>0.38</v>
+        <v>0.3299999999999999</v>
       </c>
       <c r="R24">
         <f t="shared" ca="1" si="13"/>
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="S24">
         <f t="shared" ca="1" si="14"/>
-        <v>0.26</v>
+        <v>0.20999999999999991</v>
       </c>
       <c r="T24">
         <f t="shared" ca="1" si="15"/>
-        <v>0.33999999999999997</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="U24">
         <f t="shared" ca="1" si="16"/>
-        <v>0.37</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="V24">
         <f t="shared" ca="1" si="17"/>
-        <v>0.37</v>
+        <v>0.46999999999999992</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
@@ -8646,87 +8646,87 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28999999999999998</v>
+        <v>0.19</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="3"/>
         <v>0.47</v>
       </c>
-      <c r="E25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.31</v>
-      </c>
-      <c r="F25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.39</v>
-      </c>
       <c r="G25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32</v>
+        <v>0.12</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51</v>
+        <v>0.37999999999999995</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37</v>
+        <v>0.47</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="6"/>
-        <v>0.21000000000000008</v>
+        <v>0.34</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="7"/>
-        <v>0.37999999999999995</v>
+        <v>0.72</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="8"/>
-        <v>0.18999999999999995</v>
+        <v>0.26</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="9"/>
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="10"/>
-        <v>0.46000000000000008</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="11"/>
-        <v>0.19999999999999996</v>
+        <v>0.4300000000000001</v>
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="12"/>
-        <v>0.27</v>
+        <v>0.39</v>
       </c>
       <c r="R25">
         <f t="shared" ca="1" si="13"/>
-        <v>0.31999999999999995</v>
+        <v>0.35999999999999993</v>
       </c>
       <c r="S25">
         <f t="shared" ca="1" si="14"/>
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="T25">
         <f t="shared" ca="1" si="15"/>
-        <v>0.42000000000000004</v>
+        <v>0.27</v>
       </c>
       <c r="U25">
         <f t="shared" ca="1" si="16"/>
-        <v>0.47999999999999993</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="V25">
         <f t="shared" ca="1" si="17"/>
-        <v>0.31999999999999995</v>
+        <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
@@ -8735,87 +8735,87 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39</v>
+        <v>0.63</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="5"/>
-        <v>0.52</v>
+        <v>0.78</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="6"/>
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="7"/>
-        <v>0.23999999999999994</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="8"/>
-        <v>0.36</v>
+        <v>0.78</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="9"/>
-        <v>0.42000000000000004</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59</v>
+        <v>0.25999999999999995</v>
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="11"/>
-        <v>0.45999999999999996</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="12"/>
-        <v>0.39</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="R26">
         <f t="shared" ca="1" si="13"/>
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="S26">
         <f t="shared" ca="1" si="14"/>
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="T26">
         <f t="shared" ca="1" si="15"/>
-        <v>0.49</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="U26">
         <f t="shared" ca="1" si="16"/>
-        <v>0.36</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="V26">
         <f t="shared" ca="1" si="17"/>
-        <v>0.36</v>
+        <v>0.28000000000000008</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
@@ -8824,87 +8824,87 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="3"/>
+        <v>0.18</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.13</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.48</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.24</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="3"/>
         <v>0.36</v>
       </c>
-      <c r="C27">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.44</v>
-      </c>
-      <c r="D27">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.24</v>
-      </c>
-      <c r="E27">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.26</v>
-      </c>
-      <c r="F27">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="G27">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.46</v>
-      </c>
       <c r="H27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45</v>
+        <v>0.12</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12999999999999995</v>
+        <v>0.66</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="6"/>
-        <v>0.30000000000000004</v>
+        <v>0.62000000000000011</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="7"/>
-        <v>0.4</v>
+        <v>0.31000000000000005</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="8"/>
-        <v>0.47</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="9"/>
-        <v>0.12999999999999995</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="10"/>
-        <v>0.11999999999999994</v>
+        <v>0.48</v>
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="11"/>
-        <v>0.49</v>
+        <v>0.49000000000000005</v>
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="12"/>
-        <v>0.4300000000000001</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="R27">
         <f t="shared" ca="1" si="13"/>
-        <v>0.45999999999999996</v>
+        <v>0.31999999999999984</v>
       </c>
       <c r="S27">
         <f t="shared" ca="1" si="14"/>
-        <v>0.33999999999999997</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="T27">
         <f t="shared" ca="1" si="15"/>
-        <v>0.38</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="U27">
         <f t="shared" ca="1" si="16"/>
-        <v>0.41000000000000009</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="V27">
         <f t="shared" ca="1" si="17"/>
-        <v>0.4300000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
@@ -8913,87 +8913,87 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49</v>
+        <v>0.03</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28000000000000003</v>
+        <v>0.36</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21000000000000002</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19999999999999996</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="6"/>
-        <v>0.29000000000000004</v>
+        <v>0.38</v>
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="7"/>
-        <v>0.25</v>
+        <v>0.65</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="8"/>
-        <v>0.31999999999999995</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="9"/>
-        <v>0.10000000000000003</v>
+        <v>0</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.55000000000000004</v>
+        <v>0.43</v>
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="11"/>
-        <v>0.46999999999999992</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="12"/>
-        <v>0.41000000000000003</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="R28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.48</v>
+        <v>0.27</v>
       </c>
       <c r="S28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.26</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="T28">
         <f t="shared" ca="1" si="15"/>
-        <v>0.4</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="U28">
         <f t="shared" ca="1" si="16"/>
-        <v>0.47000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="V28">
         <f t="shared" ca="1" si="17"/>
-        <v>0.32999999999999996</v>
+        <v>0.49999999999999994</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
@@ -9002,83 +9002,83 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46</v>
+        <v>0.69</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="5"/>
-        <v>0.42000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="6"/>
-        <v>0.15999999999999998</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="7"/>
-        <v>0.42</v>
+        <v>0.33000000000000007</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="8"/>
-        <v>0.56999999999999995</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="9"/>
-        <v>0.72</v>
+        <v>0.63</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="10"/>
-        <v>0.32999999999999996</v>
+        <v>0.24</v>
       </c>
       <c r="P29">
         <f t="shared" ca="1" si="11"/>
-        <v>0.35000000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="12"/>
-        <v>0.45999999999999996</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="R29">
         <f t="shared" ca="1" si="13"/>
-        <v>0.49999999999999994</v>
+        <v>0.47000000000000003</v>
       </c>
       <c r="S29">
         <f t="shared" ca="1" si="14"/>
-        <v>0.40000000000000008</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="T29">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43000000000000005</v>
+        <v>0.43</v>
       </c>
       <c r="U29">
         <f t="shared" ca="1" si="16"/>
-        <v>0.24</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="V29">
         <f t="shared" ca="1" si="17"/>
@@ -9091,87 +9091,87 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43</v>
+        <v>0.2</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14000000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17</v>
+        <v>0.35</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49</v>
+        <v>0.3</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.05</v>
+        <v>0.34</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.01</v>
+        <v>0.24</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25000000000000006</v>
+        <v>0.45</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="5"/>
-        <v>0.62</v>
+        <v>0.33</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55999999999999994</v>
+        <v>0.19000000000000006</v>
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="7"/>
-        <v>0.14000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="8"/>
-        <v>0.41000000000000003</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="9"/>
-        <v>0.56999999999999995</v>
+        <v>0.21000000000000002</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="10"/>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="P30">
         <f t="shared" ca="1" si="11"/>
-        <v>0.32</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="12"/>
-        <v>0.24</v>
+        <v>0.3299999999999999</v>
       </c>
       <c r="R30">
         <f t="shared" ca="1" si="13"/>
-        <v>0.27</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="S30">
         <f t="shared" ca="1" si="14"/>
-        <v>0.37</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="T30">
         <f t="shared" ca="1" si="15"/>
-        <v>0.32999999999999996</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="U30">
         <f t="shared" ca="1" si="16"/>
-        <v>0.38</v>
+        <v>0.4499999999999999</v>
       </c>
       <c r="V30">
         <f t="shared" ca="1" si="17"/>
-        <v>0.49</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
@@ -9180,87 +9180,87 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46</v>
+        <v>0.01</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.19</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35</v>
+        <v>0.01</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3</v>
+        <v>0.66</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47000000000000003</v>
+        <v>0.41</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="6"/>
-        <v>0.44999999999999996</v>
+        <v>0.64</v>
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="7"/>
-        <v>0.65999999999999992</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="8"/>
-        <v>0.25</v>
+        <v>0.52</v>
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="9"/>
-        <v>0.42000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="10"/>
-        <v>0.45999999999999996</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="P31">
         <f t="shared" ca="1" si="11"/>
-        <v>0.24000000000000005</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="12"/>
-        <v>0.22999999999999993</v>
+        <v>0.26999999999999996</v>
       </c>
       <c r="R31">
         <f t="shared" ca="1" si="13"/>
-        <v>0.41000000000000003</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="S31">
         <f t="shared" ca="1" si="14"/>
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="T31">
         <f t="shared" ca="1" si="15"/>
-        <v>0.5</v>
+        <v>0.37</v>
       </c>
       <c r="U31">
         <f t="shared" ca="1" si="16"/>
-        <v>0.22999999999999998</v>
+        <v>0.39</v>
       </c>
       <c r="V31">
         <f t="shared" ca="1" si="17"/>
-        <v>0.38</v>
+        <v>0.45999999999999996</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
@@ -9269,83 +9269,83 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16</v>
+        <v>0.38</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11</v>
+        <v>0.44</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.03</v>
+        <v>0.21</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="4"/>
-        <v>0.63</v>
+        <v>0.52</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33999999999999997</v>
+        <v>0.35</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="6"/>
-        <v>0.48</v>
+        <v>0.38999999999999996</v>
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="7"/>
-        <v>0.44000000000000006</v>
+        <v>9.0000000000000024E-2</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="8"/>
-        <v>0.69</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="9"/>
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43999999999999995</v>
+        <v>0.35</v>
       </c>
       <c r="P32">
         <f t="shared" ca="1" si="11"/>
-        <v>0.20999999999999996</v>
+        <v>0.40999999999999992</v>
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="12"/>
-        <v>0.5</v>
+        <v>0.27</v>
       </c>
       <c r="R32">
         <f t="shared" ca="1" si="13"/>
-        <v>0.38</v>
+        <v>0.41000000000000009</v>
       </c>
       <c r="S32">
         <f t="shared" ca="1" si="14"/>
-        <v>0.44999999999999996</v>
+        <v>0.47000000000000003</v>
       </c>
       <c r="T32">
         <f t="shared" ca="1" si="15"/>
-        <v>0.28000000000000003</v>
+        <v>0.36</v>
       </c>
       <c r="U32">
         <f t="shared" ca="1" si="16"/>
-        <v>0.36</v>
+        <v>0.3299999999999999</v>
       </c>
       <c r="V32">
         <f t="shared" ca="1" si="17"/>
